--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="6_{49A43C53-6993-428C-B60B-B09BDC3FA49C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9616C56B-8E12-433B-9092-F6B8AD6FC0F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8FE6C2-CF73-46D1-937F-E57B0241012D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
-    <sheet name="PREMIER_TC001" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="PREMIER_POC" sheetId="1" r:id="rId2"/>
+    <sheet name="PREMIER_TC001" sheetId="7" r:id="rId3"/>
+    <sheet name="PREMIER_TC002" sheetId="9" r:id="rId4"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="174">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -104,39 +106,6 @@
     <t>BranchRegion</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>[H] (456) 345-6232</t>
-  </si>
-  <si>
-    <t>Jacob Sharon</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Sharon</t>
-  </si>
-  <si>
-    <t>SSN 054-16-1437</t>
-  </si>
-  <si>
-    <t>Jacob.sharon@Test.com</t>
-  </si>
-  <si>
-    <t>1600 Chapel Ave W STE 100</t>
-  </si>
-  <si>
-    <t>Cherry Hill</t>
-  </si>
-  <si>
-    <t>8002</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Jimmy Garrett</t>
   </si>
   <si>
@@ -162,14 +131,442 @@
   </si>
   <si>
     <t>60191</t>
+  </si>
+  <si>
+    <t>Name_Name</t>
+  </si>
+  <si>
+    <t>Name_FirstName</t>
+  </si>
+  <si>
+    <t>Name_LastName</t>
+  </si>
+  <si>
+    <t>Name_MiddleInitial</t>
+  </si>
+  <si>
+    <t>Name_GenerationCode</t>
+  </si>
+  <si>
+    <t>Name_NameFormatCode</t>
+  </si>
+  <si>
+    <t>Name_DOB</t>
+  </si>
+  <si>
+    <t>Name_SuspectExemption</t>
+  </si>
+  <si>
+    <t>Name_IDType</t>
+  </si>
+  <si>
+    <t>Name_IssuedBy</t>
+  </si>
+  <si>
+    <t>Name_Value</t>
+  </si>
+  <si>
+    <t>Name_IssueDate</t>
+  </si>
+  <si>
+    <t>Name_Expiration</t>
+  </si>
+  <si>
+    <t>Name_IRSName</t>
+  </si>
+  <si>
+    <t>Name_TaxReportingAddress</t>
+  </si>
+  <si>
+    <t>Name_IRSPayeeNameControl</t>
+  </si>
+  <si>
+    <t>Name_TaxIDCode</t>
+  </si>
+  <si>
+    <t>Name_ExemptPayeeCode</t>
+  </si>
+  <si>
+    <t>Name_IRS1stBNotice</t>
+  </si>
+  <si>
+    <t>Name_IRS2ndBNotice</t>
+  </si>
+  <si>
+    <t>Name_TaxIDVerificationAttempts</t>
+  </si>
+  <si>
+    <t>Name_TaxIDVerificationDate</t>
+  </si>
+  <si>
+    <t>Name_WithholdingCode</t>
+  </si>
+  <si>
+    <t>Name_TaxIDMatchingCode</t>
+  </si>
+  <si>
+    <t>Name_FATCAExemptReportingCode</t>
+  </si>
+  <si>
+    <t>Name_Alt_Name</t>
+  </si>
+  <si>
+    <t>Name_Alt_FirstName</t>
+  </si>
+  <si>
+    <t>Name_Alt_LastName</t>
+  </si>
+  <si>
+    <t>Name_Alt_MiddleInitial</t>
+  </si>
+  <si>
+    <t>Name_Alt_NameFormatCode</t>
+  </si>
+  <si>
+    <t>(None)</t>
+  </si>
+  <si>
+    <t>Non-Personal [*]</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>LOW [1]</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Utilities [22]</t>
+  </si>
+  <si>
+    <t>14TH &amp; 5TH [32]</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Monty</t>
+  </si>
+  <si>
+    <t>Monty Hartley</t>
+  </si>
+  <si>
+    <t>Hartley</t>
+  </si>
+  <si>
+    <t>Control Person</t>
+  </si>
+  <si>
+    <t>Customer Tab</t>
+  </si>
+  <si>
+    <t>Name_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Name_Email</t>
+  </si>
+  <si>
+    <t>Name_Description</t>
+  </si>
+  <si>
+    <t>Name_Reciprocal Relationship</t>
+  </si>
+  <si>
+    <t>Name_Gender</t>
+  </si>
+  <si>
+    <t>Name_Race</t>
+  </si>
+  <si>
+    <t>Name_LanguagePreferenceIndicator</t>
+  </si>
+  <si>
+    <t>Name_EmployeeOfficerDirector</t>
+  </si>
+  <si>
+    <t>Name_RiskScore1</t>
+  </si>
+  <si>
+    <t>Name_RiskScore2</t>
+  </si>
+  <si>
+    <t>Name_RiskRanking</t>
+  </si>
+  <si>
+    <t>Name_CreditScore</t>
+  </si>
+  <si>
+    <t>Name_CustomerType</t>
+  </si>
+  <si>
+    <t>Name_DisclosureOption</t>
+  </si>
+  <si>
+    <t>Name_DisclosureDate</t>
+  </si>
+  <si>
+    <t>Name_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Name_ReferralResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Name_BranchRegion</t>
+  </si>
+  <si>
+    <t>Name_AccountingBranch</t>
+  </si>
+  <si>
+    <t>Name_NameRetentionCode</t>
+  </si>
+  <si>
+    <t>Name_ResidencyStatus</t>
+  </si>
+  <si>
+    <t>Name_OpenMethod</t>
+  </si>
+  <si>
+    <t>Name_CreationDate</t>
+  </si>
+  <si>
+    <t>Name_DateDeceased</t>
+  </si>
+  <si>
+    <t>Name_ForeignCode</t>
+  </si>
+  <si>
+    <t>Name_W-8FormType</t>
+  </si>
+  <si>
+    <t>Name_CertificationDate</t>
+  </si>
+  <si>
+    <t>Name_ExpirationDate</t>
+  </si>
+  <si>
+    <t>Name_TaxRate</t>
+  </si>
+  <si>
+    <t>Name_IncomeCode</t>
+  </si>
+  <si>
+    <t>Name_Chapter3StatusCode</t>
+  </si>
+  <si>
+    <t>Name_Chapter4StatusCode</t>
+  </si>
+  <si>
+    <t>Name_ExemptionCode</t>
+  </si>
+  <si>
+    <t>Name_ProvinceCode</t>
+  </si>
+  <si>
+    <t>Name_CountryResidenceCode</t>
+  </si>
+  <si>
+    <t>Name_CountryTaxCode</t>
+  </si>
+  <si>
+    <t>Name_GlobalIntermediaryIdentificationNumber</t>
+  </si>
+  <si>
+    <t>Name_PostalCode</t>
+  </si>
+  <si>
+    <t>Name_ForeignTaxIdentificationNumber</t>
+  </si>
+  <si>
+    <t>Name_WithholdingType</t>
+  </si>
+  <si>
+    <t>Name_TaxIdentification</t>
+  </si>
+  <si>
+    <t>Name_WebAddress</t>
+  </si>
+  <si>
+    <t>Name_BeneficialOwnerName</t>
+  </si>
+  <si>
+    <t>Name_BeneficialName_SSN</t>
+  </si>
+  <si>
+    <t>Name_Build_Relationship</t>
+  </si>
+  <si>
+    <t>Name_Beneficial_Relationship</t>
+  </si>
+  <si>
+    <t>Name_Beneficial_Percent</t>
+  </si>
+  <si>
+    <t>Address_Address1</t>
+  </si>
+  <si>
+    <t>Address_Address2</t>
+  </si>
+  <si>
+    <t>Address_Zipcode</t>
+  </si>
+  <si>
+    <t>Name_NAICSCodes_EconomicSector</t>
+  </si>
+  <si>
+    <t>Address_BuildRelationship</t>
+  </si>
+  <si>
+    <t>SSN 034-53-4579</t>
+  </si>
+  <si>
+    <t>Contact_Reason</t>
+  </si>
+  <si>
+    <t>Contact_Method</t>
+  </si>
+  <si>
+    <t>Contact_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Contact_MiscellaneousCode</t>
+  </si>
+  <si>
+    <t>Contact_NextTicklerDate</t>
+  </si>
+  <si>
+    <t>Contact_StatusDate</t>
+  </si>
+  <si>
+    <t>Contact_StatusCode</t>
+  </si>
+  <si>
+    <t>Contact_AssignedTo</t>
+  </si>
+  <si>
+    <t>Contact_FollowUp</t>
+  </si>
+  <si>
+    <t>Contact_Response</t>
+  </si>
+  <si>
+    <t>Contact_ActionCode</t>
+  </si>
+  <si>
+    <t>Contact_ExpirationDate</t>
+  </si>
+  <si>
+    <t>Address_Foreign</t>
+  </si>
+  <si>
+    <t>Address_DeliveryPoint</t>
+  </si>
+  <si>
+    <t>Address_BranchRegion</t>
+  </si>
+  <si>
+    <t>Address_AccountingBranch</t>
+  </si>
+  <si>
+    <t>Address_CensusTract</t>
+  </si>
+  <si>
+    <t>Address_MSACode</t>
+  </si>
+  <si>
+    <t>Address_CountryCode</t>
+  </si>
+  <si>
+    <t>Address_HandlingCodeOption</t>
+  </si>
+  <si>
+    <t>Address_HandlingCode</t>
+  </si>
+  <si>
+    <t>Address_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Address_ReferralResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Address_AddressRetentionCode</t>
+  </si>
+  <si>
+    <t>Address_seasonal_Address1</t>
+  </si>
+  <si>
+    <t>Address_seasonal_Address2</t>
+  </si>
+  <si>
+    <t>Address_seasonal_CityStateZip</t>
+  </si>
+  <si>
+    <t>Address_seasonal_Foreign</t>
+  </si>
+  <si>
+    <t>Address_seasonal_FromDate</t>
+  </si>
+  <si>
+    <t>Address_seasonal_ThroughDate</t>
+  </si>
+  <si>
+    <t>Address_seasonal_DeliveryPoint</t>
+  </si>
+  <si>
+    <t>Address_seasonal_CensusTract</t>
+  </si>
+  <si>
+    <t>Address_seasonal_MSACode</t>
+  </si>
+  <si>
+    <t>Address_seasonal_CountryCode</t>
+  </si>
+  <si>
+    <t>Address_seasonal_HandlingCodeOption</t>
+  </si>
+  <si>
+    <t>Address_seasonal_HandlingCode</t>
+  </si>
+  <si>
+    <t>Address_seasonal_HomePhoneNumber</t>
+  </si>
+  <si>
+    <t>New_Name1</t>
+  </si>
+  <si>
+    <t>New_TaxCode1</t>
+  </si>
+  <si>
+    <t>New_TaxNumber1</t>
+  </si>
+  <si>
+    <t>New_DOB1</t>
+  </si>
+  <si>
+    <t>New_Address1</t>
+  </si>
+  <si>
+    <t>New_Address2</t>
+  </si>
+  <si>
+    <t>New_CityStateZip</t>
+  </si>
+  <si>
+    <t>New_DeliveryPoint</t>
+  </si>
+  <si>
+    <t>New_BranchRegion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,30 +582,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,23 +627,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,18 +920,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,12 +940,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -577,43 +961,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -671,35 +1055,35 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -713,111 +1097,1828 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB268D0-87C3-4EB4-BC77-75AC72C5BD0F}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
+  <dimension ref="A1:EU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="DO1" workbookViewId="0">
+      <selection activeCell="DU9" sqref="DU9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="26" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.28515625" customWidth="1"/>
+    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.5703125" customWidth="1"/>
+    <col min="120" max="120" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CN2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="CO2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="CP2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BY3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{12B64CA2-28BA-44DE-9736-E743A2E648D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2B84D-63BD-4195-8BDA-D2B076BA5959}">
+  <dimension ref="A1:EU3"/>
+  <sheetViews>
+    <sheetView topLeftCell="DO1" workbookViewId="0">
+      <selection activeCell="DR7" sqref="DR7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="26" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.28515625" customWidth="1"/>
+    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.5703125" customWidth="1"/>
+    <col min="120" max="120" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+    </row>
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BY3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
+  <dimension ref="A1:EU3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="26" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.28515625" customWidth="1"/>
+    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.5703125" customWidth="1"/>
+    <col min="120" max="120" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+    </row>
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BY3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0426DABD-6412-404E-818A-9829CCA56346}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="PREMIER_TC006" sheetId="14" r:id="rId8"/>
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
-    <sheet name="PREMIER_TC009" sheetId="18" r:id="rId11"/>
-    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId12"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId13"/>
+    <sheet name="PREMIER_TC009" sheetId="20" r:id="rId11"/>
+    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId12"/>
+    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId13"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="252">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -769,13 +770,46 @@
   </si>
   <si>
     <t>TC014</t>
+  </si>
+  <si>
+    <t>ChangeName_SearchName</t>
+  </si>
+  <si>
+    <t>ChangeName_SearchSSN</t>
+  </si>
+  <si>
+    <t>ChangeName_LastName</t>
+  </si>
+  <si>
+    <t>Toront</t>
+  </si>
+  <si>
+    <t>Mandatory Fields</t>
+  </si>
+  <si>
+    <t>Data written in field during execution</t>
+  </si>
+  <si>
+    <t>Optional field</t>
+  </si>
+  <si>
+    <t>ChangeContact_PhoneNumber</t>
+  </si>
+  <si>
+    <t>ChangeContact_Email</t>
+  </si>
+  <si>
+    <t>345-7236</t>
+  </si>
+  <si>
+    <t>Adam.Toront@Test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,8 +837,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +883,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -866,10 +920,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,8 +941,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1169,13 +1229,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,15 +1269,27 @@
       <c r="A5" t="s">
         <v>205</v>
       </c>
+      <c r="G5" s="7"/>
+      <c r="H5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
+      <c r="G6" s="12"/>
+      <c r="H6" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,11 +1596,338 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>B2</f>
+        <v>Adam Milne</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>H2</f>
+        <v>034-53-4580</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +2315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15BF8B-FEF4-4D77-B903-C42DD71BE349}">
   <dimension ref="A1:BM2"/>
   <sheetViews>
@@ -2308,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -3749,8 +4148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,6 +4192,8 @@
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3915,25 +4316,25 @@
       <c r="A2" t="s">
         <v>194</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -4009,16 +4410,16 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4323,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F561F3-3C9E-4216-85CA-89E53EBBF59F}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0426DABD-6412-404E-818A-9829CCA56346}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A8211C2-C3C3-4FA5-82E7-C383F3AD40E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
     <sheet name="PREMIER_TC009" sheetId="20" r:id="rId11"/>
-    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId12"/>
-    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId13"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId14"/>
+    <sheet name="PREMIER_TC010" sheetId="21" r:id="rId12"/>
+    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId13"/>
+    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId14"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="286">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -802,7 +803,109 @@
     <t>345-7236</t>
   </si>
   <si>
-    <t>Adam.Toront@Test.com</t>
+    <t>ChangeContact_WebAddress</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_SearchSSN</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddRelationship</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddBeneficialOwnerName</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_BeneficialRelationship</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_BeneficialPercent</t>
+  </si>
+  <si>
+    <t>ChangeContact_AddPhoneNumber</t>
+  </si>
+  <si>
+    <t>ChangeContact_AddEmail</t>
+  </si>
+  <si>
+    <t>ChangeContact_AddPhoneType</t>
+  </si>
+  <si>
+    <t>ChangeContact_AddEmailType</t>
+  </si>
+  <si>
+    <t>Drum Lyne</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>09/28/1968</t>
+  </si>
+  <si>
+    <t>034-53-8900</t>
+  </si>
+  <si>
+    <t>Drummy</t>
+  </si>
+  <si>
+    <t>Lyne</t>
+  </si>
+  <si>
+    <t>Drummy Lyne</t>
+  </si>
+  <si>
+    <t>345-8900</t>
+  </si>
+  <si>
+    <t>drum.lyne@Test.com</t>
+  </si>
+  <si>
+    <t>8900 Flinderation Road</t>
+  </si>
+  <si>
+    <t>drum.Toront@Test.com</t>
+  </si>
+  <si>
+    <t>345-1800</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Bran Bun</t>
+  </si>
+  <si>
+    <t>Bran</t>
+  </si>
+  <si>
+    <t>Bun</t>
+  </si>
+  <si>
+    <t>06/02/1968</t>
+  </si>
+  <si>
+    <t>034-53-8901</t>
+  </si>
+  <si>
+    <t>Branny Bun</t>
+  </si>
+  <si>
+    <t>Branny</t>
+  </si>
+  <si>
+    <t>bran.bun@test.com</t>
+  </si>
+  <si>
+    <t>8901 Flinderation Road</t>
+  </si>
+  <si>
+    <t>bran.toront@Test.com</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,6 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1597,16 +1701,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1619,7 +1723,7 @@
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1647,7 +1751,390 @@
     <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>B2</f>
+        <v>Bran Bun</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>H2</f>
+        <v>034-53-8901</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{8F64D434-EF28-42FB-A412-8C68F42013AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E1BEB1-2A9B-4E42-AB68-78C0B3013791}">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1783,49 +2270,49 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
+      <c r="F2" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>191</v>
+      <c r="N2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -1880,7 +2367,7 @@
         <v>100</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>29</v>
@@ -1893,20 +2380,20 @@
       </c>
       <c r="AM2" t="str">
         <f>B2</f>
-        <v>Adam Milne</v>
+        <v>Drum Lyne</v>
       </c>
       <c r="AN2" t="str">
         <f>H2</f>
-        <v>034-53-4580</v>
+        <v>034-53-8900</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>244</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1915,14 +2402,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
+    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{C77F9F58-0E56-4C02-8749-1ACBDA4A973E}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{C31A2906-34CC-46D8-8824-BDCD5471CA6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
@@ -2315,7 +2803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15BF8B-FEF4-4D77-B903-C42DD71BE349}">
   <dimension ref="A1:BM2"/>
   <sheetViews>
@@ -2707,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B6593F-617E-40F8-B2BC-1608294061AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="PREMIER_TC006" sheetId="14" r:id="rId8"/>
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
-    <sheet name="PREMIER_TC009" sheetId="18" r:id="rId11"/>
-    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId12"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId13"/>
+    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId11"/>
+    <sheet name="PREMIER_TC013" sheetId="19" r:id="rId12"/>
+    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId13"/>
+    <sheet name="PREMIER_TC015" sheetId="21" r:id="rId14"/>
+    <sheet name="PREMIER_TC016" sheetId="20" r:id="rId15"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="261">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -765,10 +768,70 @@
     <t>Wood Dal||Wood Dal</t>
   </si>
   <si>
-    <t>TC009</t>
-  </si>
-  <si>
     <t>TC014</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>Portfolio Name</t>
+  </si>
+  <si>
+    <t>14th and 5th [91002]</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>SSN||SSN||SSN||SSN</t>
+  </si>
+  <si>
+    <t>034-53-4595||034-53-4596||034-53-4597||034-53-4598</t>
+  </si>
+  <si>
+    <t>10/28/1978||09/28/1978||08/28/1978||07/28/1978</t>
+  </si>
+  <si>
+    <t>Kane Willamson||Trent Boult||Tim Southee||Mitchel Santner</t>
+  </si>
+  <si>
+    <t>034-53-4595</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Kane Willamson</t>
+  </si>
+  <si>
+    <t>2540 Flinderation Road</t>
+  </si>
+  <si>
+    <t>2541 Flinderation Road</t>
+  </si>
+  <si>
+    <t>Portfolio Name||Portfolio Name||Portfolio Name||Portfolio Name</t>
+  </si>
+  <si>
+    <t>Portfolio_NameFormatCode</t>
+  </si>
+  <si>
+    <t>(None)||Non-Personal [*]||(None)||Non-Personal [*]</t>
+  </si>
+  <si>
+    <t>345-6236||345-6237||345-6238||345-6239</t>
+  </si>
+  <si>
+    <t>kane12@Test.com||trentBoult1@Test.com||tim23@Test.com||mitchell12@Test.com</t>
+  </si>
+  <si>
+    <t>Portfolio_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Portfolio_Email</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5548F-4C8C-42EF-8148-2839A85CEF41}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,31 +1634,31 @@
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1797,7 +1860,7 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>188</v>
@@ -1904,6 +1967,18 @@
       </c>
       <c r="AL2" t="s">
         <v>20</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -1917,11 +1992,444 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5670C923-C152-4A0C-8BA2-9744577E02E4}">
+  <dimension ref="A1:BN3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN1"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH2">
+        <v>32</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15BF8B-FEF4-4D77-B903-C42DD71BE349}">
   <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,22 +2472,22 @@
     <col min="36" max="36" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2689,7 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>229</v>
@@ -2308,7 +2816,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AC1918-ACF4-4892-8C93-2BCD82A62498}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F819AA-A0DC-401A-B23C-502C868BE3B1}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -3179,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +4242,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="AL2" sqref="B2:AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,7 +4816,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A8211C2-C3C3-4FA5-82E7-C383F3AD40E9}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6EC2EE4-95F5-4140-8F55-21A40CDF99CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
     <sheet name="PREMIER_TC009" sheetId="20" r:id="rId11"/>
-    <sheet name="PREMIER_TC010" sheetId="21" r:id="rId12"/>
-    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId13"/>
-    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId14"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId15"/>
+    <sheet name="PREMIER_TC010" sheetId="22" r:id="rId12"/>
+    <sheet name="PREMIER_TC011" sheetId="21" r:id="rId13"/>
+    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId14"/>
+    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId15"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="296">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -773,9 +774,6 @@
     <t>TC014</t>
   </si>
   <si>
-    <t>ChangeName_SearchName</t>
-  </si>
-  <si>
     <t>ChangeName_SearchSSN</t>
   </si>
   <si>
@@ -902,10 +900,43 @@
     <t>bran.toront@Test.com</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>ChangeName_Name</t>
+  </si>
+  <si>
+    <t>Bran Toront</t>
+  </si>
+  <si>
+    <t>345-8910||345-8911</t>
+  </si>
+  <si>
+    <t>Home Phone||Business Phone</t>
+  </si>
+  <si>
+    <t>E-Mail Address||Business E-Mail Address</t>
+  </si>
+  <si>
+    <t>bran.toront1@Test.com||bran.toront2@Test.com</t>
+  </si>
+  <si>
+    <t>034-53-4567||023-42-3456</t>
+  </si>
+  <si>
+    <t>Jimmy Garrett||Richard Pattison</t>
+  </si>
+  <si>
+    <t>30||10</t>
+  </si>
+  <si>
+    <t>ChangeName_SearchLastName</t>
+  </si>
+  <si>
+    <t>Friend||Nephew</t>
+  </si>
+  <si>
+    <t>TC011</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1406,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,7 +1415,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,7 +1424,7 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="AU1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,22 +1780,23 @@
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.5703125" customWidth="1"/>
+    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1880,103 +1912,103 @@
         <v>125</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
         <v>279</v>
       </c>
-      <c r="K2" t="s">
-        <v>280</v>
-      </c>
       <c r="L2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
       <c r="S2">
         <v>80</v>
       </c>
@@ -1985,9 +2017,6 @@
       </c>
       <c r="U2" t="s">
         <v>164</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>176</v>
@@ -2021,10 +2050,10 @@
         <v>178</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>29</v>
@@ -2036,55 +2065,447 @@
         <v>20</v>
       </c>
       <c r="AM2" t="str">
-        <f>B2</f>
-        <v>Bran Bun</v>
+        <f>D2</f>
+        <v>Bun</v>
       </c>
       <c r="AN2" t="str">
         <f>H2</f>
         <v>034-53-8901</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW2" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>22</v>
+        <v>290</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="AZ2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA2" t="s">
         <v>178</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>284</v>
+      <c r="BB2" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{8F64D434-EF28-42FB-A412-8C68F42013AD}"/>
+    <hyperlink ref="AW2" r:id="rId3" xr:uid="{FDB8BF62-7EFC-4EA0-8EDD-4F228183F619}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E497-C6CC-4D51-87A5-77DAADB73ED4}">
+  <dimension ref="A1:AW3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>D2</f>
+        <v>Bun</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>H2</f>
+        <v>034-53-8901</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{571014C2-57A6-4D06-91D0-BEADF97BA7EA}"/>
+    <hyperlink ref="AR2" r:id="rId2" xr:uid="{4481B4AC-97C9-44E6-94E2-6F630C222544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E1BEB1-2A9B-4E42-AB68-78C0B3013791}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2130,14 +2551,16 @@
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.5703125" customWidth="1"/>
+    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2253,73 +2676,76 @@
         <v>125</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>249</v>
+      <c r="AS1" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" t="s">
         <v>265</v>
-      </c>
-      <c r="L2" t="s">
-        <v>266</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
       <c r="S2">
         <v>80</v>
       </c>
@@ -2328,9 +2754,6 @@
       </c>
       <c r="U2" t="s">
         <v>164</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>176</v>
@@ -2367,7 +2790,7 @@
         <v>100</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>29</v>
@@ -2377,32 +2800,37 @@
       </c>
       <c r="AL2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="AM2" t="str">
-        <f>B2</f>
-        <v>Drum Lyne</v>
       </c>
       <c r="AN2" t="str">
         <f>H2</f>
         <v>034-53-8900</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="AR2" s="15" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AQ2" r:id="rId1" xr:uid="{C77F9F58-0E56-4C02-8749-1ACBDA4A973E}"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{C77F9F58-0E56-4C02-8749-1ACBDA4A973E}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{C31A2906-34CC-46D8-8824-BDCD5471CA6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2410,7 +2838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
@@ -2803,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15BF8B-FEF4-4D77-B903-C42DD71BE349}">
   <dimension ref="A1:BM2"/>
   <sheetViews>
@@ -3195,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6EC2EE4-95F5-4140-8F55-21A40CDF99CA}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D951824C-739C-4889-A4AF-41CB785D6AC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,17 @@
     <sheet name="PREMIER_TC006" sheetId="14" r:id="rId8"/>
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
-    <sheet name="PREMIER_TC009" sheetId="20" r:id="rId11"/>
-    <sheet name="PREMIER_TC010" sheetId="22" r:id="rId12"/>
-    <sheet name="PREMIER_TC011" sheetId="21" r:id="rId13"/>
-    <sheet name="PREMIER_TC012" sheetId="18" r:id="rId14"/>
-    <sheet name="PREMIER_TC014" sheetId="17" r:id="rId15"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="8" r:id="rId16"/>
+    <sheet name="PREMIER_TC010" sheetId="20" r:id="rId11"/>
+    <sheet name="PREMIER_TC011" sheetId="22" r:id="rId12"/>
+    <sheet name="PREMIER_TC012" sheetId="21" r:id="rId13"/>
+    <sheet name="PREMIER_TC013" sheetId="18" r:id="rId14"/>
+    <sheet name="PREMIER_TC014" sheetId="24" r:id="rId15"/>
+    <sheet name="PREMIER_TC015" sheetId="25" r:id="rId16"/>
+    <sheet name="PREMIER_TC016" sheetId="26" r:id="rId17"/>
+    <sheet name="PREMIER_TC017" sheetId="27" r:id="rId18"/>
+    <sheet name="PREMIER_TC018" sheetId="28" r:id="rId19"/>
+    <sheet name="PREMIER_TC019" sheetId="29" r:id="rId20"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="332">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -741,36 +746,12 @@
     <t>Monty Hartley||Adam Milne</t>
   </si>
   <si>
-    <t>Monty||Adam</t>
-  </si>
-  <si>
-    <t>Hartley||Milne</t>
-  </si>
-  <si>
     <t>10/28/1978||10/28/1979</t>
   </si>
   <si>
     <t>SSN||SSN</t>
   </si>
   <si>
-    <t>034-53-4589||034-53-4590</t>
-  </si>
-  <si>
-    <t>345-6235||345-6236</t>
-  </si>
-  <si>
-    <t>2520 Flinderation Road||2530 Flinderation Road</t>
-  </si>
-  <si>
-    <t>60191||60191</t>
-  </si>
-  <si>
-    <t>Wood Dal||Wood Dal</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
     <t>TC014</t>
   </si>
   <si>
@@ -783,12 +764,6 @@
     <t>Toront</t>
   </si>
   <si>
-    <t>Mandatory Fields</t>
-  </si>
-  <si>
-    <t>Data written in field during execution</t>
-  </si>
-  <si>
     <t>Optional field</t>
   </si>
   <si>
@@ -937,6 +912,144 @@
   </si>
   <si>
     <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>To be changed field on every run</t>
+  </si>
+  <si>
+    <t>Data to be present in the application</t>
+  </si>
+  <si>
+    <t>14th and 5th [91002]</t>
+  </si>
+  <si>
+    <t>Portfolio Name</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>19462||60191</t>
+  </si>
+  <si>
+    <t>Plymouth Meeting||Wood Dal</t>
+  </si>
+  <si>
+    <t>4138 Tree Top Lane||2530 Flinderation Road</t>
+  </si>
+  <si>
+    <t>Ben.Stokes1@Test.com||Butler12@Test.com</t>
+  </si>
+  <si>
+    <t>345-6240||345-6241</t>
+  </si>
+  <si>
+    <t>Stokes||Butler</t>
+  </si>
+  <si>
+    <t>Ben||Josh</t>
+  </si>
+  <si>
+    <t>Ben Stokes||Josh Butler</t>
+  </si>
+  <si>
+    <t>034-53-4590||034-53-4591</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>kane123@Test.com</t>
+  </si>
+  <si>
+    <t>345-6240</t>
+  </si>
+  <si>
+    <t>2543 Flinderation Road</t>
+  </si>
+  <si>
+    <t>034-53-4599</t>
+  </si>
+  <si>
+    <t>Kane Willamson</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Portfolio_Email</t>
+  </si>
+  <si>
+    <t>Portfolio_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Portfolio_NameFormatCode</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>kane12@Test.com||trentBoult1@Test.com||tim23@Test.com||mitchell12@Test.com</t>
+  </si>
+  <si>
+    <t>345-6236||345-6237||345-6238||345-6239</t>
+  </si>
+  <si>
+    <t>(None)||Non-Personal [*]||(None)||Non-Personal [*]</t>
+  </si>
+  <si>
+    <t>Portfolio Name||Secondary Portfolio Name||Portfolio Name||Secondary Portfolio Name</t>
+  </si>
+  <si>
+    <t>2541 Flinderation Road</t>
+  </si>
+  <si>
+    <t>10/28/1978||09/28/1978||08/28/1978||07/28/1978</t>
+  </si>
+  <si>
+    <t>034-53-4595||034-53-4596||034-53-4597||034-53-4598</t>
+  </si>
+  <si>
+    <t>SSN||SSN||SSN||SSN</t>
+  </si>
+  <si>
+    <t>Kane Willamson||Trent Boult||Tim Southee||Mitchel Santner</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>034-53-4579||034-53-4580</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Plymouth Meeting</t>
+  </si>
+  <si>
+    <t>4138 Tree Top Lane</t>
+  </si>
+  <si>
+    <t>034-53-4590</t>
+  </si>
+  <si>
+    <t>Ben Stokes</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1093,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,12 +1126,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1026,6 +1133,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,17 +1188,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1364,7 +1485,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,33 +1525,34 @@
       <c r="A5" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="9"/>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="10"/>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1448,7 +1570,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,25 +1735,25 @@
       <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -1673,13 +1795,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -1707,13 +1829,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -1734,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+    <sheetView topLeftCell="AY1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,99 +2034,99 @@
         <v>125</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="AZ1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>277</v>
+      <c r="H2" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -2050,18 +2172,18 @@
         <v>178</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AM2" t="str">
@@ -2072,51 +2194,51 @@
         <f>H2</f>
         <v>034-53-8901</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>290</v>
+      <c r="AO2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="BA2" t="s">
         <v>178</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="R3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="W3" s="2"/>
@@ -2137,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E497-C6CC-4D51-87A5-77DAADB73ED4}">
   <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView topLeftCell="AT1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,84 +2432,84 @@
         <v>125</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>277</v>
+      <c r="H2" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -2433,18 +2555,18 @@
         <v>178</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AM2" t="str">
@@ -2455,39 +2577,39 @@
         <f>H2</f>
         <v>034-53-8901</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>290</v>
+      <c r="AO2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="AV2" t="s">
         <v>178</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="W3" s="2"/>
@@ -2507,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E1BEB1-2A9B-4E42-AB68-78C0B3013791}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="AM1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AM2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,72 +2798,72 @@
         <v>125</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>263</v>
+      <c r="H2" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>268</v>
+      <c r="N2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -2789,40 +2911,40 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AN2" t="str">
         <f>H2</f>
         <v>034-53-8900</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>270</v>
+      <c r="AO2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="R3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="W3" s="2"/>
@@ -2843,7 +2965,7 @@
   <dimension ref="A1:BM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,27 +3234,27 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -3150,10 +3272,10 @@
       <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="Q2" t="s">
@@ -3171,7 +3293,7 @@
       <c r="U2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>68</v>
       </c>
       <c r="W2" s="2" t="s">
@@ -3208,18 +3330,22 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="12"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="W3" s="2"/>
@@ -3232,11 +3358,756 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B15BF8B-FEF4-4D77-B903-C42DD71BE349}">
-  <dimension ref="A1:BM2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCE4B3-46B5-448E-9A63-DAAD8D71026A}">
+  <dimension ref="A1:BA3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EADFB-1EC4-4E7F-88B4-D48A1C228BC0}">
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB1"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8207C1C-53CD-4E46-906B-D397C11AF029}">
+  <dimension ref="A1:BA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,28 +4147,25 @@
     <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3425,126 +4293,87 @@
         <v>168</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BM1" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>231</v>
+        <v>302</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>234</v>
+      <c r="F2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>231</v>
+      <c r="J2" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="N2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
       </c>
       <c r="S2">
         <v>80</v>
@@ -3555,17 +4384,14 @@
       <c r="U2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Y2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>73</v>
@@ -3592,29 +4418,43 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AI2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AM2" t="str">
         <f>B2</f>
-        <v>Monty Hartley||Adam Milne</v>
+        <v>Ben Stokes||Josh Butler</v>
       </c>
       <c r="AN2" t="str">
         <f>G2</f>
         <v>SSN||SSN</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AO2" s="6" t="str">
         <f>H2</f>
-        <v>034-53-4589||034-53-4590</v>
+        <v>034-53-4590||034-53-4591</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3623,12 +4463,584 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B69EFF-F824-498D-8552-14CE6CEBADE5}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D509D9A-F562-48BD-A951-73BE57089FE5}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P2" t="s">
+        <v>303</v>
+      </c>
+      <c r="R2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847A28-2D7B-4E46-9987-BECC87E7E62E}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="82.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAD382-36EC-4D57-B470-9D8DABEEAED9}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="6">
+        <v>19462</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
     <sheetView topLeftCell="DV1" workbookViewId="0">
-      <selection activeCell="DX1" sqref="DX1:EX1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,149 +5765,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,39 +5935,30 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>28791</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
@@ -4720,13 +5986,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -4754,13 +6020,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -4777,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7926C73C-05FF-47EE-9EF8-35FE24ED0612}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,25 +6209,25 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -5003,13 +6269,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -5037,13 +6303,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -5064,8 +6330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AO2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5232,13 +6498,13 @@
       <c r="A2" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E2" t="s">
@@ -5247,10 +6513,10 @@
       <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -5292,13 +6558,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -5326,16 +6592,16 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5354,7 +6620,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,25 +6785,25 @@
       <c r="A2" t="s">
         <v>205</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -5579,13 +6845,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -5613,13 +6879,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -5641,7 +6907,7 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,25 +7072,25 @@
       <c r="A2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>176</v>
       </c>
       <c r="I2" t="s">
@@ -5866,13 +7132,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -5900,13 +7166,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -5924,7 +7190,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,25 +7355,25 @@
       <c r="A2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -6149,13 +7415,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -6183,13 +7449,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">
@@ -6211,7 +7477,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6376,25 +7642,25 @@
       <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
       <c r="I2" t="s">
@@ -6436,13 +7702,13 @@
       <c r="V2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -6470,13 +7736,13 @@
       <c r="AH2" s="2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AL2" t="s">

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D951824C-739C-4889-A4AF-41CB785D6AC8}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2F1EDC9E-424E-4B79-B7F3-50C0FC783795}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="16" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <sheet name="PREMIER_TC006" sheetId="14" r:id="rId8"/>
     <sheet name="PREMIER_TC007" sheetId="15" r:id="rId9"/>
     <sheet name="PREMIER_TC008" sheetId="16" r:id="rId10"/>
-    <sheet name="PREMIER_TC010" sheetId="20" r:id="rId11"/>
-    <sheet name="PREMIER_TC011" sheetId="22" r:id="rId12"/>
-    <sheet name="PREMIER_TC012" sheetId="21" r:id="rId13"/>
-    <sheet name="PREMIER_TC013" sheetId="18" r:id="rId14"/>
-    <sheet name="PREMIER_TC014" sheetId="24" r:id="rId15"/>
-    <sheet name="PREMIER_TC015" sheetId="25" r:id="rId16"/>
-    <sheet name="PREMIER_TC016" sheetId="26" r:id="rId17"/>
-    <sheet name="PREMIER_TC017" sheetId="27" r:id="rId18"/>
-    <sheet name="PREMIER_TC018" sheetId="28" r:id="rId19"/>
-    <sheet name="PREMIER_TC019" sheetId="29" r:id="rId20"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId21"/>
+    <sheet name="PREMIER_TC009" sheetId="31" r:id="rId11"/>
+    <sheet name="PREMIER_TC010" sheetId="20" r:id="rId12"/>
+    <sheet name="PREMIER_TC011" sheetId="22" r:id="rId13"/>
+    <sheet name="PREMIER_TC012" sheetId="21" r:id="rId14"/>
+    <sheet name="PREMIER_TC013" sheetId="18" r:id="rId15"/>
+    <sheet name="PREMIER_TC014" sheetId="24" r:id="rId16"/>
+    <sheet name="PREMIER_TC015" sheetId="25" r:id="rId17"/>
+    <sheet name="PREMIER_TC016" sheetId="26" r:id="rId18"/>
+    <sheet name="PREMIER_TC017" sheetId="27" r:id="rId19"/>
+    <sheet name="PREMIER_TC018" sheetId="28" r:id="rId20"/>
+    <sheet name="PREMIER_TC019" sheetId="29" r:id="rId21"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="333">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1050,6 +1051,9 @@
   </si>
   <si>
     <t>Ben Stokes</t>
+  </si>
+  <si>
+    <t>TC009</t>
   </si>
 </sst>
 </file>
@@ -1853,6 +1857,291 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C801A-6B53-4F4C-A60F-F5F8699E6E1A}">
+  <dimension ref="A1:AL3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
@@ -2255,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E497-C6CC-4D51-87A5-77DAADB73ED4}">
   <dimension ref="A1:AW3"/>
   <sheetViews>
@@ -2625,7 +2914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E1BEB1-2A9B-4E42-AB68-78C0B3013791}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
@@ -2960,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
@@ -3357,12 +3646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCE4B3-46B5-448E-9A63-DAAD8D71026A}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,7 +4006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EADFB-1EC4-4E7F-88B4-D48A1C228BC0}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
@@ -4102,12 +4391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8207C1C-53CD-4E46-906B-D397C11AF029}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,7 +4752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D509D9A-F562-48BD-A951-73BE57089FE5}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -4605,151 +4894,6 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847A28-2D7B-4E46-9987-BECC87E7E62E}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="82.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2">
-        <v>32</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="P2" t="s">
-        <v>313</v>
-      </c>
-      <c r="R2" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4896,6 +5040,151 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847A28-2D7B-4E46-9987-BECC87E7E62E}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="82.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAD382-36EC-4D57-B470-9D8DABEEAED9}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -5035,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D951824C-739C-4889-A4AF-41CB785D6AC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E524CC7-3C50-4BCD-BC90-D068758EA378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <sheet name="PREMIER_TC017" sheetId="27" r:id="rId18"/>
     <sheet name="PREMIER_TC018" sheetId="28" r:id="rId19"/>
     <sheet name="PREMIER_TC019" sheetId="29" r:id="rId20"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId21"/>
+    <sheet name="PREMIER_TC020" sheetId="31" r:id="rId21"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="341">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1050,6 +1051,33 @@
   </si>
   <si>
     <t>Ben Stokes</t>
+  </si>
+  <si>
+    <t>Portfolio_No</t>
+  </si>
+  <si>
+    <t>PortfolioChange_BranchRegion</t>
+  </si>
+  <si>
+    <t>PortfolioChange_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>PortfolioChange_Relationship</t>
+  </si>
+  <si>
+    <t>PortfolioChange_NewName</t>
+  </si>
+  <si>
+    <t>PortfolioChange_SSN</t>
+  </si>
+  <si>
+    <t>Secondary Portfolio Name||Portfolio Name</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>PortfolioChange_RelationshipNewName</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCE4B3-46B5-448E-9A63-DAAD8D71026A}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
@@ -4900,7 +4928,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,6 +5064,146 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED590F4-939D-40CE-98CF-C8D2A92F52E3}">
+  <dimension ref="A1:BR2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA130028-8848-491C-9AED-73DB50D5E0CD}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{269DBA3F-49FB-483D-B50E-F6BB8EBE5782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53D64FC2-4F3B-483C-80FE-45D6C0A663B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="366">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1082,6 +1082,78 @@
   </si>
   <si>
     <t>Portfolio_No</t>
+  </si>
+  <si>
+    <t>Name_AddPhoneType</t>
+  </si>
+  <si>
+    <t>Name_AddEmailType</t>
+  </si>
+  <si>
+    <t>Shane Warne||Jack Bush</t>
+  </si>
+  <si>
+    <t>Shane||Jack</t>
+  </si>
+  <si>
+    <t>Warne||Bush</t>
+  </si>
+  <si>
+    <t>05/20/1978||08/08/1962</t>
+  </si>
+  <si>
+    <t>034-53-4441||034-53-4442</t>
+  </si>
+  <si>
+    <t>shane.warne@Test.com,warne.shane@test.com||jack.bush@Test.com</t>
+  </si>
+  <si>
+    <t>Friend,Nephew||Brother</t>
+  </si>
+  <si>
+    <t>,10||,20</t>
+  </si>
+  <si>
+    <t>Tim Rocks||Jared Ryon</t>
+  </si>
+  <si>
+    <t>Tim||Jared</t>
+  </si>
+  <si>
+    <t>Rock||Ryon</t>
+  </si>
+  <si>
+    <t>04/20/1978||07/08/1962</t>
+  </si>
+  <si>
+    <t>034-53-4443||034-53-4444</t>
+  </si>
+  <si>
+    <t>345-4441||345-4442</t>
+  </si>
+  <si>
+    <t>tim.rocks@Test.com||jared.ryon@Test.com</t>
+  </si>
+  <si>
+    <t>4138 Tree Hill Lane||9930 Flinderation Road</t>
+  </si>
+  <si>
+    <t>5138 Tree Top Lane||5530 Flinderatory Road</t>
+  </si>
+  <si>
+    <t>Plymonth Meeting||Woodden Dal</t>
+  </si>
+  <si>
+    <t>Control Person,Beneficial Owner||Control Person,Beneficial Owner</t>
+  </si>
+  <si>
+    <t>034-53-4441,034-53-4442||034-53-4441</t>
+  </si>
+  <si>
+    <t>Tim Rocks,Jared Ryon||Tim Rocks</t>
+  </si>
+  <si>
+    <t>345-4444,345-4446||345-4445</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,6 +1305,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1601,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5548F-4C8C-42EF-8148-2839A85CEF41}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C801A-6B53-4F4C-A60F-F5F8699E6E1A}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,34 +1980,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="61.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1975,197 +2043,331 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>332</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>230</v>
+      <c r="F2" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>298</v>
-      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="2" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3">
+        <v>80</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4">
+        <v>80</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{03EF83F8-8CFA-4661-905A-CD6FBC522826}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{EDBE840F-9400-4464-8709-E06C63DBC66E}"/>
+    <hyperlink ref="Q2" r:id="rId3" xr:uid="{13575EDE-70AB-40A5-84F4-83D37F5AC215}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2173,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="Q1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E497-C6CC-4D51-87A5-77DAADB73ED4}">
   <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView topLeftCell="AR1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,7 +5558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ABBCA9-FF89-4379-A5BE-799B939F3064}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{269DBA3F-49FB-483D-B50E-F6BB8EBE5782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53D64FC2-4F3B-483C-80FE-45D6C0A663B8}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{269DBA3F-49FB-483D-B50E-F6BB8EBE5782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C058B633-EA8F-4DDF-A81E-ADC49DD599C4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -28,14 +28,18 @@
     <sheet name="PREMIER_TC011" sheetId="22" r:id="rId13"/>
     <sheet name="PREMIER_TC012" sheetId="21" r:id="rId14"/>
     <sheet name="PREMIER_TC013" sheetId="18" r:id="rId15"/>
-    <sheet name="PREMIER_TC014" sheetId="24" r:id="rId16"/>
-    <sheet name="PREMIER_TC015" sheetId="25" r:id="rId17"/>
-    <sheet name="PREMIER_TC016" sheetId="26" r:id="rId18"/>
-    <sheet name="PREMIER_TC017" sheetId="27" r:id="rId19"/>
-    <sheet name="PREMIER_TC018" sheetId="28" r:id="rId20"/>
-    <sheet name="PREMIER_TC019" sheetId="29" r:id="rId21"/>
-    <sheet name="PREMIER_TC020" sheetId="32" r:id="rId22"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId23"/>
+    <sheet name="PREMIER_TC014" sheetId="33" r:id="rId16"/>
+    <sheet name="PREMIER_TC015" sheetId="34" r:id="rId17"/>
+    <sheet name="PREMIER_TC016" sheetId="35" r:id="rId18"/>
+    <sheet name="PREMIER_TC017" sheetId="36" r:id="rId19"/>
+    <sheet name="PREMIER_TC018" sheetId="37" r:id="rId20"/>
+    <sheet name="PREMIER_TC019" sheetId="38" r:id="rId21"/>
+    <sheet name="PREMIER_TC020" sheetId="39" r:id="rId22"/>
+    <sheet name="PREMIER_TC021" sheetId="40" r:id="rId23"/>
+    <sheet name="PREMIER_TC022" sheetId="41" r:id="rId24"/>
+    <sheet name="PREMIER_TC023" sheetId="42" r:id="rId25"/>
+    <sheet name="PREMIER_TC024" sheetId="43" r:id="rId26"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="412">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1154,6 +1158,144 @@
   </si>
   <si>
     <t>345-4444,345-4446||345-4445</t>
+  </si>
+  <si>
+    <t>034-53-4594</t>
+  </si>
+  <si>
+    <t>Trent Boult</t>
+  </si>
+  <si>
+    <t>trent123@Test.com</t>
+  </si>
+  <si>
+    <t>345-6237</t>
+  </si>
+  <si>
+    <t>Boult</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>03/28/1978</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>034-53-4593</t>
+  </si>
+  <si>
+    <t>12/28/1978</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>tim345@Test.com||ross1@Test.com</t>
+  </si>
+  <si>
+    <t>345-6236||345-6237</t>
+  </si>
+  <si>
+    <t>(None)||(None)</t>
+  </si>
+  <si>
+    <t>Portfolio Name||Portfolio Name</t>
+  </si>
+  <si>
+    <t>10/28/1978||09/28/1978</t>
+  </si>
+  <si>
+    <t>034-53-4591||034-53-4592</t>
+  </si>
+  <si>
+    <t>Tim Southee||Ross Taylor</t>
+  </si>
+  <si>
+    <t>Title Not Printed</t>
+  </si>
+  <si>
+    <t>50 Plus Checking [10014]</t>
+  </si>
+  <si>
+    <t>Owner/Signer||Co-Borrower</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Deposit_AccountTitle</t>
+  </si>
+  <si>
+    <t>Deposit_AccountTitlePrintOption</t>
+  </si>
+  <si>
+    <t>Deposit_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Deposit_InitialDeposit</t>
+  </si>
+  <si>
+    <t>Deposit_AccountNumber</t>
+  </si>
+  <si>
+    <t>Deposit_Product</t>
+  </si>
+  <si>
+    <t>Deposit_eStatement</t>
+  </si>
+  <si>
+    <t>Deposit_Relationship</t>
+  </si>
+  <si>
+    <t>Deposit_Name</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>Adam Milne||Trent Boult</t>
+  </si>
+  <si>
+    <t>034-53-4593||034-53-4594</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Deposit_SearchSSN</t>
+  </si>
+  <si>
+    <t>Warning for Testing</t>
+  </si>
+  <si>
+    <t>3rd of the Month</t>
+  </si>
+  <si>
+    <t>Allow No Customer Initiated Dr [7]</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Deposit_StatementCycle</t>
+  </si>
+  <si>
+    <t>Deposit_TransactionRestrictionCode</t>
+  </si>
+  <si>
+    <t>Deposit_StatusCode</t>
+  </si>
+  <si>
+    <t>Deposit_warning</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,6 +1448,9 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1961,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C801A-6B53-4F4C-A60F-F5F8699E6E1A}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,11 +4022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCE4B3-46B5-448E-9A63-DAAD8D71026A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B40D9D-09A4-4FB2-AD13-DFD6EB917909}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,14 +4261,14 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
+      <c r="F2" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>199</v>
+        <v>374</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -4163,18 +4308,6 @@
       </c>
       <c r="V2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
@@ -4187,7 +4320,7 @@
         <v>177</v>
       </c>
       <c r="AE2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AF2" t="s">
         <v>71</v>
@@ -4199,13 +4332,13 @@
         <v>100</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>30</v>
+        <v>328</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>19462</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>20</v>
@@ -4217,18 +4350,140 @@
         <v>210</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>199</v>
+        <v>374</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>291</v>
       </c>
+      <c r="AX2" t="s">
+        <v>373</v>
+      </c>
       <c r="AZ2" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>19462</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4237,11 +4492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EADFB-1EC4-4E7F-88B4-D48A1C228BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DE9D3-C447-468C-A5FE-364061B286EE}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,7 +4732,7 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4622,11 +4877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8207C1C-53CD-4E46-906B-D397C11AF029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F4942-5DE1-4212-9AEF-3987518692F1}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,7 +5116,7 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="17" t="s">
         <v>230</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4983,11 +5238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D509D9A-F562-48BD-A951-73BE57089FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A2681F-4C7B-41C3-9374-AD7C538D12A9}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,11 +5525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847A28-2D7B-4E46-9987-BECC87E7E62E}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D103BB-238F-45EC-8C0E-2E8400CDCAF1}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,19 +5618,19 @@
         <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5390,21 +5645,71 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="P2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>313</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5415,11 +5720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAD382-36EC-4D57-B470-9D8DABEEAED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB4C9D5-3E2B-471E-870C-06C0E454C5F5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,11 +5860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ABBCA9-FF89-4379-A5BE-799B939F3064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135D01C-4823-42A2-AA1F-F66BAA078ED2}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,11 +6000,730 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECEBAB6-1A1E-4CD9-8C9F-DB0EFA1F2646}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="21">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8632C9-34B8-421C-BC7A-FE4A4748AFCC}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="21">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95C873-E778-41E0-8E66-64F0CD5041FB}">
+  <dimension ref="A1:BE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="21">
+        <v>139</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="20">
+        <v>123456798</v>
+      </c>
+      <c r="I2" s="20">
+        <v>100</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98876A27-9F9E-48A4-9EDB-F7DFBB42D18D}">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
-    <sheetView topLeftCell="DV1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="DH1" workbookViewId="0">
+      <selection activeCell="DH8" sqref="DH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA130028-8848-491C-9AED-73DB50D5E0CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D9029-D84B-48A4-AB06-751F0EED8B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,11 @@
     <sheet name="PREMIER_TC018" sheetId="28" r:id="rId20"/>
     <sheet name="PREMIER_TC019" sheetId="29" r:id="rId21"/>
     <sheet name="PREMIER_TC020" sheetId="32" r:id="rId22"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId23"/>
+    <sheet name="PREMIER_TC021" sheetId="33" r:id="rId23"/>
+    <sheet name="PREMIER_TC022" sheetId="35" r:id="rId24"/>
+    <sheet name="PREMIER_TC023" sheetId="36" r:id="rId25"/>
+    <sheet name="PREMIER_TC024" sheetId="34" r:id="rId26"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="389">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1082,6 +1086,147 @@
   </si>
   <si>
     <t>Portfolio_No</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Tim Southee||Ross Taylor</t>
+  </si>
+  <si>
+    <t>034-53-4591||034-53-4592</t>
+  </si>
+  <si>
+    <t>10/28/1978||09/28/1978</t>
+  </si>
+  <si>
+    <t>(None)||(None)</t>
+  </si>
+  <si>
+    <t>345-6236||345-6237</t>
+  </si>
+  <si>
+    <t>tim345@Test.com||ross1@Test.com</t>
+  </si>
+  <si>
+    <t>Portfolio Name||Portfolio Name</t>
+  </si>
+  <si>
+    <t>Deposit_Name</t>
+  </si>
+  <si>
+    <t>Deposit_Relationship</t>
+  </si>
+  <si>
+    <t>Deposit_eStatement</t>
+  </si>
+  <si>
+    <t>Deposit_Product</t>
+  </si>
+  <si>
+    <t>Owner/Signer||Co-Borrower</t>
+  </si>
+  <si>
+    <t>Deposit_AccountNumber</t>
+  </si>
+  <si>
+    <t>Deposit_InitialDeposit</t>
+  </si>
+  <si>
+    <t>Deposit_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Deposit_AccountTitlePrintOption</t>
+  </si>
+  <si>
+    <t>Deposit_AccountTitle</t>
+  </si>
+  <si>
+    <t>Title Not Printed</t>
+  </si>
+  <si>
+    <t>Deposit Tab</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>50 Plus Checking [10014]</t>
+  </si>
+  <si>
+    <t>Deposit_StatusCode</t>
+  </si>
+  <si>
+    <t>Deposit_TransactionRestrictionCode</t>
+  </si>
+  <si>
+    <t>Deposit_warning</t>
+  </si>
+  <si>
+    <t>Deposit_StatementCycle</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Allow No Customer Initiated Dr [7]</t>
+  </si>
+  <si>
+    <t>Warning for Testing</t>
+  </si>
+  <si>
+    <t>3rd of the Month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Deposit_SearchSSN</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>034-53-4593</t>
+  </si>
+  <si>
+    <t>12/28/1978</t>
+  </si>
+  <si>
+    <t>Trent Boult</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Boult</t>
+  </si>
+  <si>
+    <t>03/28/1978</t>
+  </si>
+  <si>
+    <t>034-53-4594</t>
+  </si>
+  <si>
+    <t>345-6237</t>
+  </si>
+  <si>
+    <t>trent123@Test.com</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>034-53-4593||034-53-4594</t>
+  </si>
+  <si>
+    <t>Adam Milne||Trent Boult</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,6 +1378,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1517,7 +1665,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,6 +1694,10 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3678,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DCE4B3-46B5-448E-9A63-DAAD8D71026A}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,14 +4066,14 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
+      <c r="F2" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>199</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -3961,18 +4113,6 @@
       </c>
       <c r="V2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
@@ -3985,7 +4125,7 @@
         <v>177</v>
       </c>
       <c r="AE2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AF2" t="s">
         <v>71</v>
@@ -3997,13 +4137,13 @@
         <v>100</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>30</v>
+        <v>328</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>19462</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>20</v>
@@ -4015,18 +4155,140 @@
         <v>210</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>199</v>
+        <v>377</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>291</v>
       </c>
+      <c r="AX2" t="s">
+        <v>386</v>
+      </c>
       <c r="AZ2" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>19462</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4038,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EADFB-1EC4-4E7F-88B4-D48A1C228BC0}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4537,7 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4423,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8207C1C-53CD-4E46-906B-D397C11AF029}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,7 +4921,7 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="17" t="s">
         <v>230</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4785,7 +5047,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,7 +5196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5069,10 +5331,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847A28-2D7B-4E46-9987-BECC87E7E62E}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,19 +5423,19 @@
         <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5188,21 +5450,71 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>313</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5217,7 +5529,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ABBCA9-FF89-4379-A5BE-799B939F3064}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,11 +5805,730 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9234A-C495-4180-80CC-F158647670DB}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="21">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ACEDD7-7643-4405-AE5F-3697D4B7E1BE}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="21">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D828828F-AC4B-4D3F-A870-8C140A67779E}">
+  <dimension ref="A1:BE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="21">
+        <v>139</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="20">
+        <v>123456798</v>
+      </c>
+      <c r="I2" s="20">
+        <v>100</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0F8D0B-F8F1-480D-A971-B1F53B62F261}">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
-    <sheetView topLeftCell="DV1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="ED7" sqref="ED7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{269DBA3F-49FB-483D-B50E-F6BB8EBE5782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C058B633-EA8F-4DDF-A81E-ADC49DD599C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A82FD-1F55-418F-A001-5ADB6F493C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="PREMIER_TC010" sheetId="20" r:id="rId12"/>
     <sheet name="PREMIER_TC011" sheetId="22" r:id="rId13"/>
     <sheet name="PREMIER_TC012" sheetId="21" r:id="rId14"/>
-    <sheet name="PREMIER_TC013" sheetId="18" r:id="rId15"/>
+    <sheet name="PREMIER_TC013" sheetId="44" r:id="rId15"/>
     <sheet name="PREMIER_TC014" sheetId="33" r:id="rId16"/>
     <sheet name="PREMIER_TC015" sheetId="34" r:id="rId17"/>
     <sheet name="PREMIER_TC016" sheetId="35" r:id="rId18"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="466">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -881,9 +881,6 @@
     <t>bran.toront@Test.com</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>ChangeName_Name</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>TC012</t>
   </si>
   <si>
-    <t>TC013</t>
-  </si>
-  <si>
     <t>To be changed field on every run</t>
   </si>
   <si>
@@ -1296,6 +1290,174 @@
   </si>
   <si>
     <t>Deposit_warning</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>05/20/1978</t>
+  </si>
+  <si>
+    <t>034-53-4443</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>345-4444</t>
+  </si>
+  <si>
+    <t>E-Mail Address</t>
+  </si>
+  <si>
+    <t>shane.warne@Test.com</t>
+  </si>
+  <si>
+    <t>034-53-4441</t>
+  </si>
+  <si>
+    <t>Tim Rocks</t>
+  </si>
+  <si>
+    <t>Control Person,Beneficial Owner</t>
+  </si>
+  <si>
+    <t>,10</t>
+  </si>
+  <si>
+    <t>6661 Tree TopHill Lane</t>
+  </si>
+  <si>
+    <t>Plyth Meeting</t>
+  </si>
+  <si>
+    <t>19462</t>
+  </si>
+  <si>
+    <t>Address_UpdateAddress1</t>
+  </si>
+  <si>
+    <t>Address_UpdateAddress2</t>
+  </si>
+  <si>
+    <t>Address_UpdateZipCode</t>
+  </si>
+  <si>
+    <t>Address_UpdateBranchRegion</t>
+  </si>
+  <si>
+    <t>Address_UpdateSeasonalAddress1</t>
+  </si>
+  <si>
+    <t>Address_UpdateSeasonalAddress2</t>
+  </si>
+  <si>
+    <t>Address_UpdateSeasonalZipCode</t>
+  </si>
+  <si>
+    <t>6661 TopHill Lane</t>
+  </si>
+  <si>
+    <t>Plyth Point</t>
+  </si>
+  <si>
+    <t>Shane WarneAuto</t>
+  </si>
+  <si>
+    <t>WarneAuto</t>
+  </si>
+  <si>
+    <t>Address_UpdateExistingAddress1</t>
+  </si>
+  <si>
+    <t>Brother,Friend</t>
+  </si>
+  <si>
+    <t>,30</t>
+  </si>
+  <si>
+    <t>034-53-4579,034-53-4580</t>
+  </si>
+  <si>
+    <t>Monty Hartley,Adam Milne</t>
+  </si>
+  <si>
+    <t>,50</t>
+  </si>
+  <si>
+    <t>,40</t>
+  </si>
+  <si>
+    <t>,70</t>
+  </si>
+  <si>
+    <t>Control Person||Beneficial Owner</t>
+  </si>
+  <si>
+    <t>||50</t>
+  </si>
+  <si>
+    <t>,20</t>
+  </si>
+  <si>
+    <t>Edams MilneAuto</t>
+  </si>
+  <si>
+    <t>Edams</t>
+  </si>
+  <si>
+    <t>MilneAuto</t>
+  </si>
+  <si>
+    <t>034-53-0002</t>
+  </si>
+  <si>
+    <t>10/20/1978</t>
+  </si>
+  <si>
+    <t>345-0002</t>
+  </si>
+  <si>
+    <t>edams.milneauto@Test.com</t>
+  </si>
+  <si>
+    <t>0002 Flinderation Road</t>
+  </si>
+  <si>
+    <t>Woodden Dol</t>
+  </si>
+  <si>
+    <t>Byrn</t>
+  </si>
+  <si>
+    <t>034-53-0010</t>
+  </si>
+  <si>
+    <t>06/15/1968</t>
+  </si>
+  <si>
+    <t>345-0010</t>
+  </si>
+  <si>
+    <t>byrn.bnn@test.com</t>
+  </si>
+  <si>
+    <t>Byrn Toronts</t>
+  </si>
+  <si>
+    <t>Toronts</t>
+  </si>
+  <si>
+    <t>034-53-0002||034-53-4442</t>
+  </si>
+  <si>
+    <t>Edams MilneAuto||Jared Ryon</t>
+  </si>
+  <si>
+    <t>Byrn BanAuto</t>
+  </si>
+  <si>
+    <t>BanAuto</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,6 +1556,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1423,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,6 +1619,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1735,7 +1913,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1955,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,7 +1973,7 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5548F-4C8C-42EF-8148-2839A85CEF41}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,34 +2016,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1906,82 +2079,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -2022,79 +2180,66 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C801A-6B53-4F4C-A60F-F5F8699E6E1A}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,13 +2333,13 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>76</v>
@@ -2250,28 +2395,28 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -2283,16 +2428,16 @@
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="Q2" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>64</v>
@@ -2310,28 +2455,28 @@
         <v>68</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF2" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>20</v>
@@ -2339,28 +2484,28 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -2372,16 +2517,16 @@
         <v>61</v>
       </c>
       <c r="N3" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="Q3" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>64</v>
@@ -2399,28 +2544,28 @@
         <v>68</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AD3" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>20</v>
@@ -2428,28 +2573,28 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -2461,16 +2606,16 @@
         <v>61</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="Q4" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>64</v>
@@ -2493,13 +2638,13 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE4" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="AE4" s="18" t="s">
-        <v>361</v>
-      </c>
       <c r="AF4" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG4" s="6" t="s">
         <v>20</v>
@@ -2518,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,50 +2684,45 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.5703125" customWidth="1"/>
-    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="29" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" customWidth="1"/>
+    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2623,296 +2763,251 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BB1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>264</v>
+        <v>455</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>265</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
       <c r="N2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
+        <v>458</v>
+      </c>
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="AV2" t="s">
         <v>178</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" t="str">
-        <f>D2</f>
-        <v>Bun</v>
-      </c>
-      <c r="AN2" t="str">
-        <f>H2</f>
-        <v>034-53-8901</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AW2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="BA2" t="s">
-        <v>178</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="R3" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{8F64D434-EF28-42FB-A412-8C68F42013AD}"/>
-    <hyperlink ref="AW2" r:id="rId3" xr:uid="{FDB8BF62-7EFC-4EA0-8EDD-4F228183F619}"/>
+    <hyperlink ref="AM2" r:id="rId1" xr:uid="{E2ABC385-1481-4AC2-8A64-BF16EE11A8A5}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{8F64D434-EF28-42FB-A412-8C68F42013AD}"/>
+    <hyperlink ref="AR2" r:id="rId3" xr:uid="{FDB8BF62-7EFC-4EA0-8EDD-4F228183F619}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2921,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E497-C6CC-4D51-87A5-77DAADB73ED4}">
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView topLeftCell="AB1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,45 +3037,40 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3021,117 +3111,102 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AW1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>263</v>
@@ -3170,119 +3245,106 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
+        <v>443</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AH2" t="str">
         <f>D2</f>
         <v>Bun</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AI2" t="str">
         <f>H2</f>
         <v>034-53-8901</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AM2" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AN2" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AO2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AQ2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AV2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="R3" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{571014C2-57A6-4D06-91D0-BEADF97BA7EA}"/>
-    <hyperlink ref="AR2" r:id="rId2" xr:uid="{4481B4AC-97C9-44E6-94E2-6F630C222544}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{571014C2-57A6-4D06-91D0-BEADF97BA7EA}"/>
+    <hyperlink ref="AM2" r:id="rId2" display="bran.toront1@Test.com,bran.toront2@Test.com" xr:uid="{4481B4AC-97C9-44E6-94E2-6F630C222544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3291,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E1BEB1-2A9B-4E42-AB68-78C0B3013791}">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AM2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="M1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,41 +3374,36 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="29" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.5703125" customWidth="1"/>
-    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="29" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" customWidth="1"/>
+    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3387,105 +3444,90 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS1" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>250</v>
@@ -3523,101 +3565,88 @@
       <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
+        <v>419</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AI2" t="str">
         <f>H2</f>
         <v>034-53-8900</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="R3" t="s">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{C77F9F58-0E56-4C02-8749-1ACBDA4A973E}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{C31A2906-34CC-46D8-8824-BDCD5471CA6B}"/>
+    <hyperlink ref="AM2" r:id="rId1" xr:uid="{C77F9F58-0E56-4C02-8749-1ACBDA4A973E}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{C31A2906-34CC-46D8-8824-BDCD5471CA6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3625,17 +3654,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
-  <dimension ref="A1:BM3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA73A5-91D6-4F40-A4D4-2227C4BA0EC6}">
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3647,59 +3676,35 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3740,284 +3745,270 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>185</v>
+        <v>435</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>121</v>
+        <v>424</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>122</v>
+        <v>425</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>123</v>
+        <v>426</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>216</v>
+        <v>427</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="N2" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="Y2" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z2" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AA2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="12"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI3" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ3" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO3" s="31" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{A428E9D6-38B7-498C-8354-D012A288CE30}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4262,13 +4253,13 @@
         <v>62</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -4332,10 +4323,10 @@
         <v>100</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK2" s="6">
         <v>19462</v>
@@ -4350,22 +4341,22 @@
         <v>210</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AX2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -4373,46 +4364,46 @@
         <v>232</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>64</v>
@@ -4455,10 +4446,10 @@
         <v>100</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK3" s="6">
         <v>19462</v>
@@ -4467,22 +4458,22 @@
         <v>20</v>
       </c>
       <c r="AM3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AN3" t="s">
         <v>210</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4718,7 +4709,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>188</v>
@@ -4854,13 +4845,13 @@
         <v>32</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AX2" t="s">
         <v>174</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BB2" t="s">
         <v>174</v>
@@ -5102,16 +5093,16 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -5123,28 +5114,28 @@
         <v>231</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>64</v>
@@ -5193,13 +5184,13 @@
         <v>100</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>20</v>
@@ -5217,10 +5208,10 @@
         <v>034-53-4590||034-53-4591</v>
       </c>
       <c r="AW2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -5305,13 +5296,13 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>209</v>
@@ -5328,22 +5319,22 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5358,22 +5349,22 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>62</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5592,13 +5583,13 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>209</v>
@@ -5615,19 +5606,19 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>28</v>
@@ -5645,42 +5636,42 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
@@ -5695,22 +5686,22 @@
         <v>32</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5797,22 +5788,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H2" s="6">
         <v>19462</v>
@@ -5821,18 +5812,18 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>229</v>
@@ -5841,16 +5832,16 @@
         <v>231</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5884,25 +5875,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -5969,28 +5960,28 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>229</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6026,34 +6017,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
@@ -6103,22 +6094,22 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="21">
         <v>137</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="G2" s="20">
         <v>123456789</v>
@@ -6127,10 +6118,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -6211,34 +6202,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
@@ -6288,22 +6279,22 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="21">
         <v>137</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="G2" s="20">
         <v>123456789</v>
@@ -6312,10 +6303,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -6397,37 +6388,37 @@
         <v>4</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
@@ -6477,25 +6468,25 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2" s="21">
         <v>139</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H2" s="20">
         <v>123456798</v>
@@ -6504,10 +6495,10 @@
         <v>100</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
@@ -6583,19 +6574,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -6645,22 +6636,22 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="21">
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -6710,7 +6701,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7450,10 +7441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7471,34 +7462,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7539,82 +7525,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7646,73 +7617,58 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7724,10 +7680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7926C73C-05FF-47EE-9EF8-35FE24ED0612}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7745,34 +7701,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7813,208 +7764,171 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>188</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>189</v>
+        <v>447</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>190</v>
+        <v>448</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
+      <c r="F2" s="17" t="s">
+        <v>450</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
       <c r="N2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{306E37A3-134B-4EF9-8F6C-C4EAC885C8C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8032,36 +7946,31 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="40" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8102,82 +8011,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -8218,79 +8112,66 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="Y2" s="10" t="s">
-        <v>71</v>
+        <v>438</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>439</v>
+      </c>
       <c r="AB2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8300,10 +8181,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0371A331-A9C0-4295-9E0A-6EAC6637B91B}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8321,34 +8202,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8389,82 +8265,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -8505,79 +8366,66 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8587,10 +8435,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F561F3-3C9E-4216-85CA-89E53EBBF59F}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8608,34 +8456,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8676,82 +8519,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -8792,73 +8620,58 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8870,10 +8683,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5138B-7E21-476E-9C06-1D9AB69C7C58}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8891,34 +8704,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8959,82 +8767,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -9075,79 +8868,66 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9157,10 +8937,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456FD351-620A-4F1A-A8A1-F5DCD3C8A605}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9178,34 +8958,29 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9246,82 +9021,67 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -9362,79 +9122,66 @@
         <v>61</v>
       </c>
       <c r="N2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="Y2" s="10" t="s">
-        <v>71</v>
+        <v>438</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>439</v>
+      </c>
       <c r="AB2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AG2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{269DBA3F-49FB-483D-B50E-F6BB8EBE5782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C058B633-EA8F-4DDF-A81E-ADC49DD599C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE44513-8418-435B-9F1D-390CFD10CFA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,18 @@
     <sheet name="PREMIER_TC022" sheetId="41" r:id="rId24"/>
     <sheet name="PREMIER_TC023" sheetId="42" r:id="rId25"/>
     <sheet name="PREMIER_TC024" sheetId="43" r:id="rId26"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId27"/>
+    <sheet name="PREMIER_TC025" sheetId="44" r:id="rId27"/>
+    <sheet name="PREMIER_TC026" sheetId="45" r:id="rId28"/>
+    <sheet name="PREMIER_TC027" sheetId="46" r:id="rId29"/>
+    <sheet name="PREMIER_TC028" sheetId="47" r:id="rId30"/>
+    <sheet name="PREMIER_TC029" sheetId="48" r:id="rId31"/>
+    <sheet name="PREMIER_TC030" sheetId="50" r:id="rId32"/>
+    <sheet name="PREMIER_TC031" sheetId="52" r:id="rId33"/>
+    <sheet name="PREMIER_TC032" sheetId="53" r:id="rId34"/>
+    <sheet name="PREMIER_TC033" sheetId="54" r:id="rId35"/>
+    <sheet name="PREMIER_TC034" sheetId="55" r:id="rId36"/>
+    <sheet name="PREMIER_TC035" sheetId="56" r:id="rId37"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="493">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -947,9 +958,6 @@
     <t>Plymouth Meeting||Wood Dal</t>
   </si>
   <si>
-    <t>4138 Tree Top Lane||2530 Flinderation Road</t>
-  </si>
-  <si>
     <t>Ben.Stokes1@Test.com||Butler12@Test.com</t>
   </si>
   <si>
@@ -965,15 +973,9 @@
     <t>Ben Stokes||Josh Butler</t>
   </si>
   <si>
-    <t>034-53-4590||034-53-4591</t>
-  </si>
-  <si>
     <t>TC016</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
     <t>kane123@Test.com</t>
   </si>
   <si>
@@ -1052,12 +1054,6 @@
     <t>4138 Tree Top Lane</t>
   </si>
   <si>
-    <t>034-53-4590</t>
-  </si>
-  <si>
-    <t>Ben Stokes</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
@@ -1268,9 +1264,6 @@
     <t>Deposit_SearchSSN</t>
   </si>
   <si>
-    <t>Warning for Testing</t>
-  </si>
-  <si>
     <t>3rd of the Month</t>
   </si>
   <si>
@@ -1286,16 +1279,277 @@
     <t>TC023</t>
   </si>
   <si>
-    <t>Deposit_StatementCycle</t>
-  </si>
-  <si>
-    <t>Deposit_TransactionRestrictionCode</t>
-  </si>
-  <si>
-    <t>Deposit_StatusCode</t>
-  </si>
-  <si>
-    <t>Deposit_warning</t>
+    <t>Friend||Brother</t>
+  </si>
+  <si>
+    <t>Control Person||Control Person,Beneficial Owner</t>
+  </si>
+  <si>
+    <t>||,20</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>E-Mail Address</t>
+  </si>
+  <si>
+    <t>034-53-4441</t>
+  </si>
+  <si>
+    <t>Tim Rocks</t>
+  </si>
+  <si>
+    <t>Control Person,Beneficial Owner</t>
+  </si>
+  <si>
+    <t>,10</t>
+  </si>
+  <si>
+    <t>Non-Personal [*]||Non-Personal [*]</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>034-53-4595||034-53-4596</t>
+  </si>
+  <si>
+    <t>034-53-4594||034-53-4594</t>
+  </si>
+  <si>
+    <t>Trent Boult||Trent Boult</t>
+  </si>
+  <si>
+    <t>4238 Tree Top Lane||2530 Flinderation Road</t>
+  </si>
+  <si>
+    <t>Line_Name</t>
+  </si>
+  <si>
+    <t>Line_Relationship</t>
+  </si>
+  <si>
+    <t>Line_eStatement</t>
+  </si>
+  <si>
+    <t>Line_FinancialStatementNotify</t>
+  </si>
+  <si>
+    <t>Line_NextFinDate</t>
+  </si>
+  <si>
+    <t>Line_NextReviewDate</t>
+  </si>
+  <si>
+    <t>Line_MaximumCredit</t>
+  </si>
+  <si>
+    <t>Line_MaximumCreditCode</t>
+  </si>
+  <si>
+    <t>Line_ResponsibiliytCode</t>
+  </si>
+  <si>
+    <t>Fixed - Net Balance</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>Loan_NoteNumber</t>
+  </si>
+  <si>
+    <t>Loan_CashProceeds</t>
+  </si>
+  <si>
+    <t>Loan_MaximumCredit</t>
+  </si>
+  <si>
+    <t>Loan_MaximumCreditCode</t>
+  </si>
+  <si>
+    <t>Loan_NoteDate</t>
+  </si>
+  <si>
+    <t>Loan_ContractDate</t>
+  </si>
+  <si>
+    <t>Loan_AccountOpenedMethod</t>
+  </si>
+  <si>
+    <t>Loan_OriginalCreditScore</t>
+  </si>
+  <si>
+    <t>Loan_PaymentReserveOption</t>
+  </si>
+  <si>
+    <t>Loan_OriginalPaymentReserve</t>
+  </si>
+  <si>
+    <t>Loan_InternalPaymentOption</t>
+  </si>
+  <si>
+    <t>Loan_ResponsibilityCode</t>
+  </si>
+  <si>
+    <t>Loans_InterestMethod</t>
+  </si>
+  <si>
+    <t>Loans_FirstPaymentDate</t>
+  </si>
+  <si>
+    <t>Loans_PaymentFrequency</t>
+  </si>
+  <si>
+    <t>Loans_FirstInterestPaymentDate</t>
+  </si>
+  <si>
+    <t>Loans_InterestPaymentFrequency</t>
+  </si>
+  <si>
+    <t>Loans_PurposeCode</t>
+  </si>
+  <si>
+    <t>Loans_PaymentCode</t>
+  </si>
+  <si>
+    <t>Loans_ChargeAccount</t>
+  </si>
+  <si>
+    <t>Loans_Rate</t>
+  </si>
+  <si>
+    <t>Loans_RateAdjuster1</t>
+  </si>
+  <si>
+    <t>Loans_RateAdjuster2</t>
+  </si>
+  <si>
+    <t>Loans_PercentofPrimeCode</t>
+  </si>
+  <si>
+    <t>Loans_TotalInterest</t>
+  </si>
+  <si>
+    <t>Portfolio Tab</t>
+  </si>
+  <si>
+    <t>Deposit Tab</t>
+  </si>
+  <si>
+    <t>Loan and Line Tab</t>
+  </si>
+  <si>
+    <t>Loans_Insurance_Plan</t>
+  </si>
+  <si>
+    <t>Loans_Insurance_Premium</t>
+  </si>
+  <si>
+    <t>Loans_Insurance_LineLifeInsuranceOption</t>
+  </si>
+  <si>
+    <t>Loans_Insurance_SimpleInsuranceBillingDay</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_StartDate</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_Frequency</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_Number</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_PIAmount</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_Escrow</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_Rate</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_SuppressPaymentChangeNotice</t>
+  </si>
+  <si>
+    <t>Loan_Schedule_OtherEscrow</t>
+  </si>
+  <si>
+    <t>Loan_Product</t>
+  </si>
+  <si>
+    <t>Residential Mortgage [52001]</t>
+  </si>
+  <si>
+    <t>[3] 360 Amortized</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Owner/Signer</t>
+  </si>
+  <si>
+    <t>01/03/2022</t>
+  </si>
+  <si>
+    <t>12/11/2021</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_warning</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StatusCode</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TransactionRestrictionCode</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StatementCycle</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_AccountNumber</t>
+  </si>
+  <si>
+    <t>Tim Southee</t>
+  </si>
+  <si>
+    <t>034-53-4591</t>
+  </si>
+  <si>
+    <t>tim345@Test.com</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Line_SearchSSN</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,6 +1648,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1423,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,6 +1717,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,19 +2005,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,26 +2026,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="K3" s="1"/>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
+      <c r="K4" s="4"/>
+      <c r="L4" t="s">
+        <v>460</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -1779,8 +2057,12 @@
       <c r="H5" t="s">
         <v>288</v>
       </c>
+      <c r="K5" s="23"/>
+      <c r="L5" t="s">
+        <v>461</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -1788,8 +2070,12 @@
       <c r="H6" t="s">
         <v>236</v>
       </c>
+      <c r="K6" s="25"/>
+      <c r="L6" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -1798,13 +2084,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -2106,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C801A-6B53-4F4C-A60F-F5F8699E6E1A}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,13 +2474,13 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>76</v>
@@ -2250,28 +2536,28 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -2286,13 +2572,13 @@
         <v>277</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>278</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>64</v>
@@ -2310,22 +2596,22 @@
         <v>68</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AE2" s="18" t="s">
         <v>294</v>
@@ -2339,28 +2625,28 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -2375,13 +2661,13 @@
         <v>277</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>278</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>64</v>
@@ -2399,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AD3" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AE3" s="18" t="s">
         <v>294</v>
@@ -2428,28 +2714,28 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -2464,13 +2750,13 @@
         <v>277</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>64</v>
@@ -2493,10 +2779,10 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AF4" s="18" t="s">
         <v>293</v>
@@ -2520,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636018A5-AFA2-418F-9FDA-4F02F05385C6}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="AY1" zoomScale="102" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -3628,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CD893-663B-49AD-AF62-0C3548621C51}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,10 +4309,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B40D9D-09A4-4FB2-AD13-DFD6EB917909}">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,47 +4330,42 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="39" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="42" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4125,127 +4406,112 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="AM1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -4262,13 +4528,13 @@
         <v>62</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -4286,202 +4552,197 @@
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
+      <c r="Y2" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>329</v>
+        <v>410</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>19462</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>210</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>19462</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AU2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AX2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>290</v>
       </c>
+      <c r="AV2" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>232</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>210</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>65</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>80</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>67</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>164</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
-        <v>186</v>
+      <c r="Y3" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>329</v>
+        <v>410</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>19462</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>210</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>19462</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="AT3" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4493,10 +4754,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DE9D3-C447-468C-A5FE-364061B286EE}">
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,47 +4775,42 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="39" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="42" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4595,128 +4851,113 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="AM1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB1"/>
+        <v>336</v>
+      </c>
+      <c r="AW1"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4757,118 +4998,103 @@
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AK2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>187</v>
+      <c r="AP2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2">
+        <v>32</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV2">
-        <v>32</v>
-      </c>
-      <c r="AW2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AT2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV2" t="s">
         <v>174</v>
       </c>
-      <c r="AZ2" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="AW2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4878,10 +5104,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F4942-5DE1-4212-9AEF-3987518692F1}">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,47 +5125,42 @@
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4980,138 +5201,123 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="AM1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -5123,113 +5329,104 @@
         <v>231</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>296</v>
       </c>
+      <c r="P2" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="Q2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AF2" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AH2" t="str">
         <f>B2</f>
         <v>Ben Stokes||Josh Butler</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AI2" t="str">
         <f>G2</f>
         <v>SSN||SSN</v>
       </c>
-      <c r="AO2" s="6" t="str">
+      <c r="AJ2" s="6" t="str">
         <f>H2</f>
-        <v>034-53-4590||034-53-4591</v>
-      </c>
-      <c r="AW2" t="s">
+        <v>034-53-4595||034-53-4596</v>
+      </c>
+      <c r="AR2" t="s">
         <v>291</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AT2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5242,7 +5439,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,10 +5458,10 @@
     <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5305,45 +5502,45 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5364,15 +5561,12 @@
         <v>62</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="P2" t="s">
-        <v>303</v>
-      </c>
-      <c r="R2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5528,8 +5722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D103BB-238F-45EC-8C0E-2E8400CDCAF1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,10 +5742,10 @@
     <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5592,42 +5786,42 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>28</v>
@@ -5645,42 +5839,42 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="P2" t="s">
-        <v>376</v>
-      </c>
-      <c r="R2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q2" t="s">
         <v>290</v>
+      </c>
+      <c r="S2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
@@ -5695,22 +5889,22 @@
         <v>32</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="P3" t="s">
-        <v>313</v>
-      </c>
-      <c r="R3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q3" t="s">
         <v>290</v>
+      </c>
+      <c r="S3" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5723,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB4C9D5-3E2B-471E-870C-06C0E454C5F5}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,10 +5933,10 @@
     <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5783,36 +5977,36 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H2" s="6">
         <v>19462</v>
@@ -5823,16 +6017,13 @@
       <c r="L2" t="s">
         <v>291</v>
       </c>
-      <c r="M2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>229</v>
@@ -5841,16 +6032,16 @@
         <v>231</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L3" t="s">
         <v>291</v>
       </c>
-      <c r="M3" t="s">
-        <v>324</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>290</v>
+      </c>
+      <c r="P3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5863,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135D01C-4823-42A2-AA1F-F66BAA078ED2}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,25 +6075,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -5969,10 +6160,10 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -5987,10 +6178,10 @@
         <v>229</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6001,450 +6192,128 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECEBAB6-1A1E-4CD9-8C9F-DB0EFA1F2646}">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="U1" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="W1" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="21">
-        <v>137</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="20">
-        <v>123456789</v>
-      </c>
-      <c r="H2" s="20">
-        <v>100</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8632C9-34B8-421C-BC7A-FE4A4748AFCC}">
-  <dimension ref="A1:BD2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="21">
-        <v>137</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="20">
-        <v>123456789</v>
-      </c>
-      <c r="H2" s="20">
-        <v>100</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95C873-E778-41E0-8E66-64F0CD5041FB}">
-  <dimension ref="A1:BE2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
@@ -6474,58 +6343,100 @@
       <c r="BC1" s="22"/>
       <c r="BD1" s="22"/>
       <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="21">
-        <v>139</v>
+        <v>382</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>386</v>
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="H2" s="20">
-        <v>123456798</v>
-      </c>
-      <c r="I2" s="20">
-        <v>100</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="AB2" s="20">
+        <v>123456789</v>
+      </c>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
       <c r="AE2" s="20"/>
@@ -6555,70 +6466,152 @@
       <c r="BC2" s="20"/>
       <c r="BD2" s="20"/>
       <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98876A27-9F9E-48A4-9EDB-F7DFBB42D18D}">
-  <dimension ref="A1:AY3"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8632C9-34B8-421C-BC7A-FE4A4748AFCC}">
+  <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
@@ -6642,48 +6635,106 @@
       <c r="AW1" s="22"/>
       <c r="AX1" s="22"/>
       <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="21">
+        <v>392</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20">
         <v>123456789</v>
       </c>
-      <c r="C2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
       <c r="AE2" s="20"/>
@@ -6707,11 +6758,671 @@
       <c r="AW2" s="20"/>
       <c r="AX2" s="20"/>
       <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
-        <v>402</v>
-      </c>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95C873-E778-41E0-8E66-64F0CD5041FB}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <v>123456798</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98876A27-9F9E-48A4-9EDB-F7DFBB42D18D}">
+  <dimension ref="A1:CA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.7109375" customWidth="1"/>
+    <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+      <c r="CA1" s="22"/>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6719,11 +7430,4073 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D7CCF-1FC4-41FD-BA5F-8B3B01FF451B}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D85EAA-F568-456E-A340-9252EEF7D328}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD5C578-A312-4D24-AE1C-B68B3C705847}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <v>123456798</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7">
+        <v>28791</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF9F66A-FC00-4E2B-A0CA-0CCF7E1E615B}">
+  <dimension ref="A1:CA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+      <c r="CA1" s="22"/>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B26F500-7A3F-4E9C-BB42-136378C04558}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A938139A-0F27-4217-8739-A7D794EEC1BE}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C9010D-57B8-4C7C-8B4E-F52C70A6AC65}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <v>123456798</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B5BC39-D611-47EB-ADAE-213047C85728}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2D35E1-E53D-44FE-BD9A-B47066E185FA}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AT1" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU1" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV1" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX1" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY1" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="BB1" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="BC1" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD1" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE1" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF1" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG1" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="BK1" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="BL1" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="BM1" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="BN1" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69F936-F87E-4BC0-923D-A76172D97037}">
+  <dimension ref="A1:BV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AT1" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU1" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV1" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX1" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY1" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="BB1" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="BC1" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD1" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE1" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF1" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG1" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="BK1" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="BL1" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="BM1" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="BN1" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8561CBF0-74E4-46E2-94B8-24D881764AAC}">
+  <dimension ref="A1:BW2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="AT1" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AU1" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV1" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW1" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AX1" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="AY1" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB1" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC1" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="BD1" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="BE1" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="BF1" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="BG1" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="BK1" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="BL1" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="BM1" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="BN1" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="BO1" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="DH8" sqref="DH8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,280 +12221,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
-  <dimension ref="A1:AL2"/>
-  <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7">
-        <v>28791</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2">
-        <v>80</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7926C73C-05FF-47EE-9EF8-35FE24ED0612}">
   <dimension ref="A1:AL3"/>
@@ -8872,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5138B-7E21-476E-9C06-1D9AB69C7C58}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6F97A-84F5-4846-A338-240DDE241197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="36" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,11 @@
     <sheet name="PREMIER_TC033" sheetId="64" r:id="rId35"/>
     <sheet name="PREMIER_TC034" sheetId="65" r:id="rId36"/>
     <sheet name="PREMIER_TC035" sheetId="66" r:id="rId37"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId38"/>
+    <sheet name="PREMIER_TC044" sheetId="67" r:id="rId38"/>
+    <sheet name="PREMIER_TC045" sheetId="68" r:id="rId39"/>
+    <sheet name="PREMIER_TC046" sheetId="69" r:id="rId40"/>
+    <sheet name="PREMIER_TC047" sheetId="70" r:id="rId41"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="565">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1682,6 +1686,90 @@
   </si>
   <si>
     <t>Line_SearchSSN</t>
+  </si>
+  <si>
+    <t>SDB_Name</t>
+  </si>
+  <si>
+    <t>SDB_Relationship</t>
+  </si>
+  <si>
+    <t>SDB_AccountNumber</t>
+  </si>
+  <si>
+    <t>SDB_RentCode</t>
+  </si>
+  <si>
+    <t>SDB_BillingMethod</t>
+  </si>
+  <si>
+    <t>SDB_ChargeAccount</t>
+  </si>
+  <si>
+    <t>SDB_BillingFrequency</t>
+  </si>
+  <si>
+    <t>SDB_LastBillingDate</t>
+  </si>
+  <si>
+    <t>10 x 10 [5]</t>
+  </si>
+  <si>
+    <t>Bill by Notice</t>
+  </si>
+  <si>
+    <t>123456787</t>
+  </si>
+  <si>
+    <t>12/16/2021</t>
+  </si>
+  <si>
+    <t>SDB_SearchSSN</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>ChangeSDB_AccountNumber</t>
+  </si>
+  <si>
+    <t>ChangeSDB_CurrentRentDue</t>
+  </si>
+  <si>
+    <t>ChangeSDB_BillingFrequency</t>
+  </si>
+  <si>
+    <t>ChangeSDB_ChargeAccountNumber</t>
+  </si>
+  <si>
+    <t>ChangeSDB_BoxRentCode</t>
+  </si>
+  <si>
+    <t>ChangeSDB_LastBillingDate</t>
+  </si>
+  <si>
+    <t>ChangeSDB_BillingMethod</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>3 x 10 [3]</t>
+  </si>
+  <si>
+    <t>123456788</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,6 +1958,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5863,7 +5952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5BA5-EEDB-4430-B383-B9902BFFB72C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
@@ -6140,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E87C52-E524-468C-82CB-94433DA626DC}">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,7 +6529,7 @@
   <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,8 +6825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B619EA-1295-4B02-BB55-CCE2465B6616}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10094,8 +10183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADBBE7C-BEE6-48E5-A1CF-7E6C25767D02}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CB7" sqref="CB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11403,732 +11492,491 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
-  <dimension ref="A1:FN3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB5784D-0C81-46F0-B6E8-D7DE8EB8F910}">
+  <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="DO14" sqref="DO14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="45.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="86" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="145" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="146" max="146" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="148" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="153" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="154" max="154" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CS1" s="1" t="s">
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
         <v>137</v>
       </c>
-      <c r="CT1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DZ1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EA1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="EB1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="EC1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="ED1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="EE1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="EF1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="EG1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="EH1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EK1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="EN1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="EO1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EP1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="EQ1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="ER1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="ES1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="ET1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="EU1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="EV1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="EW1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="EX1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-    </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="S2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ2">
-        <v>80</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>28</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>29</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BY3" s="2"/>
+      <c r="T2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA640BA6-B8B2-47BD-96F2-227DB993FD85}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12374,6 +12222,1387 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAF485-97CF-469B-9F2A-A26379CE90E9}">
+  <dimension ref="A1:BL2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1597E5A8-5D75-4F79-848F-A58AB2843E69}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
+  <dimension ref="A1:FN3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="64" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="104" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="20" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="30" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="29" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="31" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="137" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="138" max="138" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="145" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="148" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:170" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+    </row>
+    <row r="2" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="S2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BY3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C97C2D2-4EC1-425B-BBD6-87C606E882FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="36" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="37" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -50,11 +50,13 @@
     <sheet name="PREMIER_TC033" sheetId="64" r:id="rId35"/>
     <sheet name="PREMIER_TC034" sheetId="65" r:id="rId36"/>
     <sheet name="PREMIER_TC035" sheetId="66" r:id="rId37"/>
-    <sheet name="PREMIER_TC044" sheetId="67" r:id="rId38"/>
-    <sheet name="PREMIER_TC045" sheetId="68" r:id="rId39"/>
-    <sheet name="PREMIER_TC046" sheetId="69" r:id="rId40"/>
-    <sheet name="PREMIER_TC047" sheetId="70" r:id="rId41"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId42"/>
+    <sheet name="PREMIER_TC050" sheetId="67" r:id="rId38"/>
+    <sheet name="PREMIER_TC051" sheetId="68" r:id="rId39"/>
+    <sheet name="PREMIER_TC052" sheetId="69" r:id="rId40"/>
+    <sheet name="PREMIER_TC053" sheetId="70" r:id="rId41"/>
+    <sheet name="PREMIER_TC054" sheetId="72" r:id="rId42"/>
+    <sheet name="PREMIER_TC055" sheetId="71" r:id="rId43"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="568">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1727,18 +1729,6 @@
     <t>SDB_SearchSSN</t>
   </si>
   <si>
-    <t>TC044</t>
-  </si>
-  <si>
-    <t>TC045</t>
-  </si>
-  <si>
-    <t>TC046</t>
-  </si>
-  <si>
-    <t>TC047</t>
-  </si>
-  <si>
     <t>ChangeSDB_AccountNumber</t>
   </si>
   <si>
@@ -1766,10 +1756,31 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>3 x 10 [3]</t>
-  </si>
-  <si>
     <t>123456788</t>
+  </si>
+  <si>
+    <t>TC053</t>
+  </si>
+  <si>
+    <t>TC052</t>
+  </si>
+  <si>
+    <t>TC051</t>
+  </si>
+  <si>
+    <t>TC050</t>
+  </si>
+  <si>
+    <t>TC054</t>
+  </si>
+  <si>
+    <t>TC055</t>
+  </si>
+  <si>
+    <t>ChangeSDB_EscheatDate</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
   </si>
 </sst>
 </file>
@@ -11496,7 +11507,7 @@
   <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11657,7 +11668,7 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>375</v>
@@ -11784,7 +11795,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11902,7 +11913,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>375</v>
@@ -12229,8 +12240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAF485-97CF-469B-9F2A-A26379CE90E9}">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12388,7 +12399,7 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>375</v>
@@ -12448,7 +12459,7 @@
         <v>378</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="X2" s="26" t="s">
         <v>545</v>
@@ -12507,10 +12518,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1597E5A8-5D75-4F79-848F-A58AB2843E69}">
-  <dimension ref="A1:BZ2"/>
+  <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12548,10 +12559,9 @@
     <col min="33" max="33" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -12640,26 +12650,24 @@
         <v>544</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AE1" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="AF1" s="33" t="s">
-        <v>559</v>
-      </c>
       <c r="AG1" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="AH1" s="33" t="s">
-        <v>560</v>
-      </c>
       <c r="AI1" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="AJ1" s="33" t="s">
-        <v>558</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
       <c r="AM1" s="22"/>
@@ -12701,11 +12709,10 @@
       <c r="BW1" s="22"/>
       <c r="BX1" s="22"/>
       <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>375</v>
@@ -12787,17 +12794,15 @@
         <v>547</v>
       </c>
       <c r="AE2" s="38" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AF2" s="21"/>
       <c r="AG2" s="38" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AH2" s="21"/>
       <c r="AI2" s="20"/>
-      <c r="AJ2" s="26" t="s">
-        <v>563</v>
-      </c>
+      <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
@@ -12839,7 +12844,6 @@
       <c r="BW2" s="20"/>
       <c r="BX2" s="20"/>
       <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12847,6 +12851,632 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE9D19-4240-4807-B45F-CB31061AAF57}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1967A3-9B02-4B78-97A0-50CCBA6B04C2}">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C97C2D2-4EC1-425B-BBD6-87C606E882FF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50F39A6C-E2E1-4BD8-87F0-955702390FA8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="37" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="39" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,13 @@
     <sheet name="PREMIER_TC053" sheetId="70" r:id="rId41"/>
     <sheet name="PREMIER_TC054" sheetId="72" r:id="rId42"/>
     <sheet name="PREMIER_TC055" sheetId="71" r:id="rId43"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId44"/>
+    <sheet name="PREMIER_TC065" sheetId="73" r:id="rId44"/>
+    <sheet name="PREMIER_TC066" sheetId="75" r:id="rId45"/>
+    <sheet name="PREMIER_TC067" sheetId="74" r:id="rId46"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="579">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1781,6 +1785,39 @@
   </si>
   <si>
     <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_AlternateCycle</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_AlternateCycleOption</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_NotificationOption</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_SuspendedInterest</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_SuspendedDepositRateIndex</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_SuspendedStatementCycle</t>
+  </si>
+  <si>
+    <t>4th of the Month</t>
+  </si>
+  <si>
+    <t>Positive Notification Only</t>
+  </si>
+  <si>
+    <t>1st of the Month</t>
+  </si>
+  <si>
+    <t>1031 Escrow Savings [86]</t>
+  </si>
+  <si>
+    <t>[97] Inactive Accounts</t>
   </si>
 </sst>
 </file>
@@ -7138,10 +7175,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FDCEA6-A24C-41FA-8532-F17DEB4E077C}">
-  <dimension ref="A1:CA2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7175,12 +7212,9 @@
     <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.7109375" customWidth="1"/>
-    <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -7274,15 +7308,9 @@
       <c r="AE1" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="AF1" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG1" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH1" s="33" t="s">
-        <v>463</v>
-      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
       <c r="AI1" s="22"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
@@ -7325,11 +7353,8 @@
       <c r="BV1" s="22"/>
       <c r="BW1" s="22"/>
       <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
-      <c r="CA1" s="22"/>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>392</v>
       </c>
@@ -7415,15 +7440,9 @@
       <c r="AE2" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="AF2" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>394</v>
-      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
@@ -7466,9 +7485,6 @@
       <c r="BV2" s="20"/>
       <c r="BW2" s="20"/>
       <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13167,8 +13183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1967A3-9B02-4B78-97A0-50CCBA6B04C2}">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13477,6 +13493,996 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BB0FDE-E604-49D8-AF0B-3DF9185DD68A}">
+  <dimension ref="A1:BY2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="34">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786D2A4C-22D6-4747-9BC4-C592D18C75BF}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="34">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG2" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2315D-AAA5-494B-AC1B-7930D1649961}">
+  <dimension ref="A1:BX2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>139</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="34">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50F39A6C-E2E1-4BD8-87F0-955702390FA8}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{14910A64-9AE8-4AE2-A990-2DF0D5EE89BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1082B4FC-6F61-41E8-8FB0-AE881BBF524F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="39" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="31" activeTab="54" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -50,19 +50,27 @@
     <sheet name="PREMIER_TC033" sheetId="64" r:id="rId35"/>
     <sheet name="PREMIER_TC034" sheetId="65" r:id="rId36"/>
     <sheet name="PREMIER_TC035" sheetId="66" r:id="rId37"/>
-    <sheet name="PREMIER_TC050" sheetId="67" r:id="rId38"/>
-    <sheet name="PREMIER_TC051" sheetId="68" r:id="rId39"/>
-    <sheet name="PREMIER_TC052" sheetId="69" r:id="rId40"/>
-    <sheet name="PREMIER_TC053" sheetId="70" r:id="rId41"/>
-    <sheet name="PREMIER_TC054" sheetId="72" r:id="rId42"/>
-    <sheet name="PREMIER_TC055" sheetId="71" r:id="rId43"/>
-    <sheet name="PREMIER_TC065" sheetId="73" r:id="rId44"/>
-    <sheet name="PREMIER_TC066" sheetId="75" r:id="rId45"/>
-    <sheet name="PREMIER_TC067" sheetId="74" r:id="rId46"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId47"/>
+    <sheet name="PREMIER_TC036" sheetId="76" r:id="rId38"/>
+    <sheet name="PREMIER_TC037" sheetId="77" r:id="rId39"/>
+    <sheet name="PREMIER_TC038" sheetId="78" r:id="rId40"/>
+    <sheet name="PREMIER_TC039" sheetId="79" r:id="rId41"/>
+    <sheet name="PREMIER_TC040" sheetId="80" r:id="rId42"/>
+    <sheet name="PREMIER_TC041" sheetId="81" r:id="rId43"/>
+    <sheet name="PREMIER_TC042" sheetId="82" r:id="rId44"/>
+    <sheet name="PREMIER_TC043" sheetId="83" r:id="rId45"/>
+    <sheet name="PREMIER_TC044" sheetId="84" r:id="rId46"/>
+    <sheet name="PREMIER_TC050" sheetId="67" r:id="rId47"/>
+    <sheet name="PREMIER_TC051" sheetId="68" r:id="rId48"/>
+    <sheet name="PREMIER_TC052" sheetId="69" r:id="rId49"/>
+    <sheet name="PREMIER_TC053" sheetId="70" r:id="rId50"/>
+    <sheet name="PREMIER_TC054" sheetId="72" r:id="rId51"/>
+    <sheet name="PREMIER_TC055" sheetId="71" r:id="rId52"/>
+    <sheet name="PREMIER_TC065" sheetId="73" r:id="rId53"/>
+    <sheet name="PREMIER_TC066" sheetId="75" r:id="rId54"/>
+    <sheet name="PREMIER_TC067" sheetId="74" r:id="rId55"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId56"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,8 +88,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Narlawar, Onkar (Pune)</author>
+  </authors>
+  <commentList>
+    <comment ref="BT2" authorId="0" shapeId="0" xr:uid="{244508F8-0E55-4587-A861-422A0141B7AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Narlawar, Onkar (Pune):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cannot be future date</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="632">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1818,13 +1860,172 @@
   </si>
   <si>
     <t>[97] Inactive Accounts</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>1601 WALNUT STREET [3]</t>
+  </si>
+  <si>
+    <t>HOME EQUITY INSTLMNT [16]</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyPetitionFileDate</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyStatus</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyChapter</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentRestrictionCodeOverride</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentRestrictionCode</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_LoanRatingCode1</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_WriteDownStatus</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_StatusCode</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentFrequency</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Warning</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_AccountingMethod</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_BranchRegion</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_Class</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NoteNumber</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>Acceptable [6]</t>
+  </si>
+  <si>
+    <t>Write Down</t>
+  </si>
+  <si>
+    <t>EARLY COLLECTION [1]</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>For One Update</t>
+  </si>
+  <si>
+    <t>Zero Payment Tolerance</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>Petition</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t>BANKRUPTCY [2]</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>trent123@Test.com (Primary)</t>
+  </si>
+  <si>
+    <t>Signer</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddEstatement</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddSSN</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddName</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_UpdateRelationship</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_Name</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_RemoveName</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>Automatic Recoveries Generated</t>
+  </si>
+  <si>
+    <t>Allow Non Accrual Late Charges</t>
+  </si>
+  <si>
+    <t>[1] Non-Accrual</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualDate</t>
+  </si>
+  <si>
+    <t>ChangeLoan_AutomaticRecoveryOverride</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualLateChargeOption</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1859,6 +2060,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1963,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2007,6 +2221,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11080,8 +11295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02E117-67B1-42E4-85EA-1B05E6A39EDD}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11519,16 +11734,15 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB5784D-0C81-46F0-B6E8-D7DE8EB8F910}">
-  <dimension ref="A1:BR2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99B6A82-2A9A-49F3-8C16-0DE00C4928A4}">
+  <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -11547,17 +11761,70 @@
     <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="27" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -11611,92 +11878,215 @@
       <c r="R1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="T1" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>28</v>
@@ -11715,16 +12105,16 @@
         <v>32</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
@@ -11732,54 +12122,80 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="21">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
       <c r="AO2" s="20"/>
       <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
       <c r="AV2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
       <c r="AZ2" s="20"/>
       <c r="BA2" s="20"/>
       <c r="BB2" s="20"/>
@@ -11796,9 +12212,32 @@
       <c r="BM2" s="20"/>
       <c r="BN2" s="20"/>
       <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11807,16 +12246,15 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA640BA6-B8B2-47BD-96F2-227DB993FD85}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DDE34C-E94F-40B4-9D62-663956E5E5BE}">
+  <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -11827,7 +12265,7 @@
     <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -11835,17 +12273,70 @@
     <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -11899,49 +12390,215 @@
       <c r="R1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="T1" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>544</v>
-      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>28</v>
@@ -11960,16 +12617,16 @@
         <v>32</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>462</v>
+        <v>61</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
@@ -11977,33 +12634,122 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="21">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="AA2" s="23" t="s">
-        <v>548</v>
-      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12253,6 +12999,3842 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC1329B-71D5-4B16-A854-62F133DB53E1}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="BV2" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="BW2" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBB3F72-C688-45F5-8FD5-F68872B638E4}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEC7014-F0EF-43BC-A228-6B8F15960E65}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="CC2" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FA3E2D-60C8-4DF0-9CE9-ED98C705CD60}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="BT2" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE675A3-1A5C-422D-A911-B1ED46D0F1B6}">
+  <dimension ref="A1:BR2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F65301-4347-4480-8683-CF2409FED4F5}">
+  <dimension ref="A1:BQ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54407393-A298-4F28-9ACD-13667C1FF6CB}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="43" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="BT2" s="38" t="s">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB5784D-0C81-46F0-B6E8-D7DE8EB8F910}">
+  <dimension ref="A1:BR2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA640BA6-B8B2-47BD-96F2-227DB993FD85}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>137</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAF485-97CF-469B-9F2A-A26379CE90E9}">
   <dimension ref="A1:BL2"/>
   <sheetViews>
@@ -12532,7 +17114,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1597E5A8-5D75-4F79-848F-A58AB2843E69}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
@@ -12866,7 +17704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE9D19-4240-4807-B45F-CB31061AAF57}">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -13179,7 +18017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1967A3-9B02-4B78-97A0-50CCBA6B04C2}">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -13492,7 +18330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BB0FDE-E604-49D8-AF0B-3DF9185DD68A}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
@@ -13817,11 +18655,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786D2A4C-22D6-4747-9BC4-C592D18C75BF}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
@@ -14149,11 +18987,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2315D-AAA5-494B-AC1B-7930D1649961}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
@@ -14482,7 +19320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -15242,262 +20080,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
-  <dimension ref="A1:AG3"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>402</v>
-      </c>
-      <c r="O2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" t="s">
-        <v>164</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0371A331-A9C0-4295-9E0A-6EAC6637B91B}">
   <dimension ref="A1:AG3"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6F97A-84F5-4846-A338-240DDE241197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD0A6C-5056-4FA4-A740-063AB11BDB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,16 @@
     <sheet name="PREMIER_TC033" sheetId="64" r:id="rId35"/>
     <sheet name="PREMIER_TC034" sheetId="65" r:id="rId36"/>
     <sheet name="PREMIER_TC035" sheetId="66" r:id="rId37"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId38"/>
+    <sheet name="PREMIER_TC036" sheetId="67" r:id="rId38"/>
+    <sheet name="PREMIER_TC037" sheetId="68" r:id="rId39"/>
+    <sheet name="PREMIER_TC038" sheetId="69" r:id="rId40"/>
+    <sheet name="PREMIER_TC039" sheetId="70" r:id="rId41"/>
+    <sheet name="PREMIER_TC040" sheetId="71" r:id="rId42"/>
+    <sheet name="PREMIER_TC041" sheetId="72" r:id="rId43"/>
+    <sheet name="PREMIER_TC042" sheetId="73" r:id="rId44"/>
+    <sheet name="PREMIER_TC043" sheetId="74" r:id="rId45"/>
+    <sheet name="PREMIER_TC044" sheetId="75" r:id="rId46"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,8 +79,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Narlawar, Onkar (Pune)</author>
+  </authors>
+  <commentList>
+    <comment ref="BT2" authorId="0" shapeId="0" xr:uid="{244508F8-0E55-4587-A861-422A0141B7AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Narlawar, Onkar (Pune):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cannot be future date</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="590">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1682,13 +1725,172 @@
   </si>
   <si>
     <t>Line_SearchSSN</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NoteNumber</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentRestrictionCode</t>
+  </si>
+  <si>
+    <t>Zero Payment Tolerance</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentFrequency</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_Class</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_BranchRegion</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Codes_AccountingMethod</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Warning</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_StatusCode</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_WriteDownStatus</t>
+  </si>
+  <si>
+    <t>ChangeLoan_Status_LoanRatingCode1</t>
+  </si>
+  <si>
+    <t>ChangeLoan_PaymentRestrictionCodeOverride</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyChapter</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyStatus</t>
+  </si>
+  <si>
+    <t>ChangeLoan_BankruptcyPetitionFileDate</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>1601 WALNUT STREET [3]</t>
+  </si>
+  <si>
+    <t>HOME EQUITY INSTLMNT [16]</t>
+  </si>
+  <si>
+    <t>EARLY COLLECTION [1]</t>
+  </si>
+  <si>
+    <t>Write Down</t>
+  </si>
+  <si>
+    <t>Acceptable [6]</t>
+  </si>
+  <si>
+    <t>BANKRUPTCY [2]</t>
+  </si>
+  <si>
+    <t>For One Update</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Petition</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddName</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddSSN</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_AddEstatement</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_RemoveName</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_UpdateRelationship</t>
+  </si>
+  <si>
+    <t>ChangeRelationship_Name</t>
+  </si>
+  <si>
+    <t>Signer</t>
+  </si>
+  <si>
+    <t>trent123@Test.com (Primary)</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualCode</t>
+  </si>
+  <si>
+    <t>[1] Non-Accrual</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualLateChargeOption</t>
+  </si>
+  <si>
+    <t>Allow Non Accrual Late Charges</t>
+  </si>
+  <si>
+    <t>ChangeLoan_AutomaticRecoveryOverride</t>
+  </si>
+  <si>
+    <t>Automatic Recoveries Generated</t>
+  </si>
+  <si>
+    <t>ChangeLoan_NonAccrualDate</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,6 +1925,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1827,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,6 +2085,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5863,7 +6080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5BA5-EEDB-4430-B383-B9902BFFB72C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
@@ -9757,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CECD6A-51D1-4216-9108-8A964CBF6856}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10964,8 +11181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02E117-67B1-42E4-85EA-1B05E6A39EDD}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BN13" sqref="BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11403,6 +11620,4618 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8AE09C-DEBC-4D91-814F-94327FAEA2C2}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="27" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F191C-A32C-4110-AEBB-BCE130A2CAF6}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BT1" sqref="BT1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7926C73C-05FF-47EE-9EF8-35FE24ED0612}">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P2" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{306E37A3-134B-4EF9-8F6C-C4EAC885C8C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C50E21-64DC-45B1-9314-0A972A325731}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BU11" sqref="BU11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="BV2" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="BW2" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B57A9C-9031-492F-876C-238F1283CE34}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="BY13" sqref="BY13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E100127C-697A-4949-A7E6-0CC0EE8F310D}">
+  <dimension ref="A1:CG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CC6" sqref="CC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.85546875" customWidth="1"/>
+    <col min="70" max="70" width="32" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="37" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU1" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="BV1" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="CA1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="CC1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="CC2" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A448CF-421E-4E8E-AADF-C688C9880DF8}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BR7" sqref="BR7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="BT2" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE47074-4CC6-4CDA-BAB8-921BCF6227CB}">
+  <dimension ref="A1:BR2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576151C-DF4F-4210-A7BC-DADA4ED2C08D}">
+  <dimension ref="A1:BQ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BO9" sqref="BO9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156839BC-A639-493D-9F9C-A8AE50072B71}">
+  <dimension ref="A1:BT2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BQ11" sqref="BQ11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="43" customWidth="1"/>
+    <col min="67" max="67" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ1" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="BR1" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="BS1" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="BT1" s="37" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="20">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21">
+        <v>136</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="21">
+        <v>12345678</v>
+      </c>
+      <c r="BQ2" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="BT2" s="39" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -12132,251 +16961,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7926C73C-05FF-47EE-9EF8-35FE24ED0612}">
-  <dimension ref="A1:AG3"/>
-  <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>402</v>
-      </c>
-      <c r="O2" t="s">
-        <v>440</v>
-      </c>
-      <c r="P2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" t="s">
-        <v>164</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{306E37A3-134B-4EF9-8F6C-C4EAC885C8C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67129EC-2FA0-47CC-B1FB-EE7AC6CCE2AD}">
   <dimension ref="A1:AG3"/>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B04AE-D4AE-4524-A77F-A59459078506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="6_{FB43AE08-22DC-4726-AB1A-D2BDA939E976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3FB67A7-9129-4F8E-B1B8-03012A60377E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="50" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -65,10 +65,11 @@
     <sheet name="PREMIER_TC053" sheetId="70" r:id="rId50"/>
     <sheet name="PREMIER_TC054" sheetId="72" r:id="rId51"/>
     <sheet name="PREMIER_TC055" sheetId="71" r:id="rId52"/>
-    <sheet name="PREMIER_TC065" sheetId="73" r:id="rId53"/>
-    <sheet name="PREMIER_TC066" sheetId="75" r:id="rId54"/>
-    <sheet name="PREMIER_TC067" sheetId="74" r:id="rId55"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId56"/>
+    <sheet name="PREMIER_TC060" sheetId="85" r:id="rId53"/>
+    <sheet name="PREMIER_TC065" sheetId="73" r:id="rId54"/>
+    <sheet name="PREMIER_TC066" sheetId="75" r:id="rId55"/>
+    <sheet name="PREMIER_TC067" sheetId="74" r:id="rId56"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId57"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Narlawar, Onkar (Pune):</t>
         </r>
@@ -111,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cannot be future date</t>
@@ -122,8 +123,60 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mukh, Moksha (Noida)</author>
+  </authors>
+  <commentList>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{52E4EB93-044A-4405-908C-BD24EE863205}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Future Date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{3DD33337-A6D6-453D-93AB-0F237F8FFCD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Today's date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{EA0B9F24-7DD2-43DD-8B51-307208CF9EEF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Future Date
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="690">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2145,13 +2198,61 @@
   </si>
   <si>
     <t>Rory123@Test.com</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldReason</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldAmount</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldExpirationDate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldAccountPledgedOnLoan</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldMaxPledge</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldDate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldPendingStartDate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldPendingAmount</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldAmountOption</t>
+  </si>
+  <si>
+    <t>Hold For Test</t>
+  </si>
+  <si>
+    <t>Not Pledged</t>
+  </si>
+  <si>
+    <t>12/27/2021</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_HoldPledgedNoteNum</t>
+  </si>
+  <si>
+    <t>12/23/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,9 +2293,22 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -4211,7 +4325,7 @@
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9209,8 +9323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6D9A3-3551-4839-80EB-4CF9C2B6DC5C}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18930,6 +19044,367 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE498832-2560-4DF5-8514-B6EB45AF927C}">
+  <dimension ref="A1:BX2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="AM1" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="AN1" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="19">
+        <v>32</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20">
+        <v>139</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="33">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>685</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BB0FDE-E604-49D8-AF0B-3DF9185DD68A}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
@@ -19254,7 +19729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786D2A4C-22D6-4747-9BC4-C592D18C75BF}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
@@ -19586,7 +20061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F2315D-AAA5-494B-AC1B-7930D1649961}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
@@ -19919,7 +20394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{A94D479F-8D7C-4C32-A6A7-E6C37FFE5AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA130028-8848-491C-9AED-73DB50D5E0CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE3B95-B79E-4FCC-8221-33DCAB44DD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -35,11 +35,12 @@
     <sheet name="PREMIER_TC018" sheetId="28" r:id="rId20"/>
     <sheet name="PREMIER_TC019" sheetId="29" r:id="rId21"/>
     <sheet name="PREMIER_TC020" sheetId="32" r:id="rId22"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId23"/>
+    <sheet name="PREMIER_TC030" sheetId="33" r:id="rId23"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +49,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="355">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -976,12 +976,6 @@
     <t>345-6240</t>
   </si>
   <si>
-    <t>2543 Flinderation Road</t>
-  </si>
-  <si>
-    <t>034-53-4599</t>
-  </si>
-  <si>
     <t>Kane Willamson</t>
   </si>
   <si>
@@ -1082,12 +1076,58 @@
   </si>
   <si>
     <t>Portfolio_No</t>
+  </si>
+  <si>
+    <t>Tim Southee||Ross Taylor</t>
+  </si>
+  <si>
+    <t>Owner/Signer||Co-Borrower</t>
+  </si>
+  <si>
+    <t>(None)||(None)</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>Line_Name</t>
+  </si>
+  <si>
+    <t>Line_Relationship</t>
+  </si>
+  <si>
+    <t>Line_eStatement</t>
+  </si>
+  <si>
+    <t>Line_FinancialStatementNotify</t>
+  </si>
+  <si>
+    <t>Line_NextFinDate</t>
+  </si>
+  <si>
+    <t>Line_NextReviewDate</t>
+  </si>
+  <si>
+    <t>Line_MaximumCredit</t>
+  </si>
+  <si>
+    <t>Line_MaximumCreditCode</t>
+  </si>
+  <si>
+    <t>Line_ResponsibiliytCode</t>
+  </si>
+  <si>
+    <t>Fixed - Net Balance</t>
+  </si>
+  <si>
+    <t>136</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1209,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,6 +1273,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1522,8 +1566,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,44 +1651,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1894,44 +1938,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2052,7 +2096,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>300</v>
@@ -2179,60 +2223,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.5703125" customWidth="1"/>
-    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="28.85546875" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="27.28515625" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="29.42578125" collapsed="false"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="32.5703125" collapsed="false"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="38.42578125" collapsed="false"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="29.7109375" collapsed="false"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="35.28515625" collapsed="false"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="44.5703125" collapsed="false"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="36.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2582,55 +2626,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="29.42578125" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="32.5703125" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="38.42578125" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="29.7109375" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="35.28515625" collapsed="false"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="44.5703125" collapsed="false"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="36.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,51 +2996,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="29" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.5703125" customWidth="1"/>
-    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="23.5703125" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="28.85546875" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="27.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3287,69 +3331,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="55" max="56" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="58" max="59" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="27.5703125" collapsed="false"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="27.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3684,57 +3728,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="44" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4044,57 +4088,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="44" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="44" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4429,57 +4473,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="40" max="41" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.5703125" collapsed="false"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="27.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4784,30 +4828,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D509D9A-F562-48BD-A951-73BE57089FE5}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M15" activeCellId="1" sqref="P2 M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4848,13 +4892,13 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>209</v>
@@ -4871,22 +4915,22 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -4904,7 +4948,7 @@
         <v>291</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>305</v>
@@ -4913,15 +4957,15 @@
         <v>304</v>
       </c>
       <c r="P2" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="R2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
-        <v>61</v>
+      <c r="M3" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -4940,35 +4984,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5077,24 +5121,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="82.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="56.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="82.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="76.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5135,13 +5179,13 @@
         <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>209</v>
@@ -5158,22 +5202,22 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5188,19 +5232,19 @@
         <v>32</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R2" t="s">
         <v>290</v>
@@ -5222,20 +5266,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.5703125" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5290,22 +5334,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H2" s="6">
         <v>19462</v>
@@ -5317,7 +5361,7 @@
         <v>291</v>
       </c>
       <c r="M2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O2" t="s">
         <v>290</v>
@@ -5325,7 +5369,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>229</v>
@@ -5334,13 +5378,13 @@
         <v>231</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L3" t="s">
         <v>291</v>
       </c>
       <c r="M3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O3" t="s">
         <v>290</v>
@@ -5356,20 +5400,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ABBCA9-FF89-4379-A5BE-799B939F3064}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.42578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.85546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.28515625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="40.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5377,25 +5421,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -5462,10 +5506,10 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -5480,10 +5524,10 @@
         <v>229</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5493,6 +5537,191 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B33B799-F6B0-42E9-B3CE-5EF7F1123E93}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="31.140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.28515625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="21">
+        <v>135</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="22">
+        <v>44535</v>
+      </c>
+      <c r="H2" s="22">
+        <v>44539</v>
+      </c>
+      <c r="I2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -5502,124 +5731,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="45.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="86" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="145" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="146" max="146" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="148" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="153" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="154" max="154" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="40" max="41" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="80" max="86" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="126" max="126" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="144" max="145" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="147" max="148" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="152" max="153" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:170" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6232,44 +6461,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6506,44 +6735,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6793,46 +7022,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="40" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7082,44 +7311,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7369,44 +7598,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7652,44 +7881,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7939,44 +8168,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{42ED7F89-C7F0-4710-9D74-68757429604E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D3F8050C-63CC-430D-8D8F-E49D5A3B8D6C}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{42ED7F89-C7F0-4710-9D74-68757429604E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{845AE5E2-5C37-48F5-AC2B-574841604B1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" firstSheet="54" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -69,11 +69,12 @@
     <sheet name="PREMIER_TC053" sheetId="70" r:id="rId54"/>
     <sheet name="PREMIER_TC054" sheetId="72" r:id="rId55"/>
     <sheet name="PREMIER_TC055" sheetId="71" r:id="rId56"/>
-    <sheet name="PREMIER_TC060" sheetId="89" r:id="rId57"/>
-    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId58"/>
-    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId59"/>
-    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId60"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId61"/>
+    <sheet name="PREMIER_TC059" sheetId="93" r:id="rId57"/>
+    <sheet name="PREMIER_TC060" sheetId="89" r:id="rId58"/>
+    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId59"/>
+    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId60"/>
+    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId61"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId62"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -943,7 +944,7 @@
     <author>Mukh, Moksha (Noida)</author>
   </authors>
   <commentList>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{52E4EB93-044A-4405-908C-BD24EE863205}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{EBBF3579-74AC-488F-B2CF-9D2D37522F4B}">
       <text>
         <r>
           <rPr>
@@ -951,13 +952,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Future Date</t>
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{3DD33337-A6D6-453D-93AB-0F237F8FFCD0}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{12E2C70C-9A24-4C86-8D84-1AFA94DD4630}">
       <text>
         <r>
           <rPr>
@@ -965,23 +966,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Today's date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{EA0B9F24-7DD2-43DD-8B51-307208CF9EEF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Future Date
-</t>
+          <t>Future date</t>
         </r>
       </text>
     </comment>
@@ -1136,6 +1123,58 @@
           </rPr>
           <t xml:space="preserve">
 Future Date</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mukh, Moksha (Noida)</author>
+  </authors>
+  <commentList>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{52E4EB93-044A-4405-908C-BD24EE863205}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Future Date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{3DD33337-A6D6-453D-93AB-0F237F8FFCD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Today's date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{EA0B9F24-7DD2-43DD-8B51-307208CF9EEF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Future Date
+</t>
         </r>
       </text>
     </comment>
@@ -2246,7 +2285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4916" uniqueCount="977">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -5153,13 +5192,37 @@
   </si>
   <si>
     <t>ChangeDeposit_HoldReason</t>
+  </si>
+  <si>
+    <t>Tickler For Test</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TicklerDescription</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TicklerAdditionalMsg</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TicklerNextDate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TicklerFrequency</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_TicklerExpirationDate</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>01/23/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5207,19 +5270,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -5335,7 +5385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5391,6 +5441,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10015,7 +10066,7 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10257,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E87C52-E524-468C-82CB-94433DA626DC}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25010,11 +25061,339 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A35F73-F07B-423E-A0FB-7B4FF64A729E}">
+  <dimension ref="A1:BS2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>971</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>972</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>973</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>974</v>
+      </c>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="19">
+        <v>32</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20">
+        <v>139</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A69EF9-767A-45B4-966E-C374C91ED942}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25370,7 +25749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D40E7-DC0C-4955-ACF1-7A13D5BA89C9}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
@@ -25689,338 +26068,6 @@
       <c r="BW2" s="19"/>
       <c r="BX2" s="19"/>
       <c r="BY2" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349F8E1-7BEB-4026-AC51-71D5D7249101}">
-  <dimension ref="A1:BZ2"/>
-  <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="19">
-        <v>32</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20">
-        <v>139</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="29">
-        <v>123456789</v>
-      </c>
-      <c r="AD2" s="20">
-        <v>123456789</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG2" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26273,6 +26320,338 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349F8E1-7BEB-4026-AC51-71D5D7249101}">
+  <dimension ref="A1:BZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="19">
+        <v>32</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20">
+        <v>139</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="29">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG2" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B2626-D2AB-4007-9FA2-56022F2E3F1F}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
@@ -26605,7 +26984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>

--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DCAEE40F-C943-4D53-8723-183D6F305D02}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E886ED16-AB86-4B51-AE90-7B4E6D383E31}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" tabRatio="754" firstSheet="53" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" firstSheet="56" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -71,10 +71,11 @@
     <sheet name="PREMIER_TC055" sheetId="71" r:id="rId56"/>
     <sheet name="PREMIER_TC059" sheetId="93" r:id="rId57"/>
     <sheet name="PREMIER_TC060" sheetId="89" r:id="rId58"/>
-    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId59"/>
-    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId60"/>
-    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId61"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId62"/>
+    <sheet name="PREMIER_TC061" sheetId="94" r:id="rId59"/>
+    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId60"/>
+    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId61"/>
+    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId62"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId63"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -944,6 +945,54 @@
     <author>Mukh, Moksha (Noida)</author>
   </authors>
   <commentList>
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{2B7A791F-0DA1-476B-9650-C3E9ECE31481}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Future Date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{44C5F30C-C881-4667-8AC4-954FD7566301}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Future Date</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{EBBF3579-74AC-488F-B2CF-9D2D37522F4B}">
       <text>
         <r>
@@ -2310,7 +2359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6204" uniqueCount="1317">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -6240,6 +6289,27 @@
   </si>
   <si>
     <t>ChangeDeposit_TicklerDescription</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_OverdraftLimit</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_DDBaseAccount</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_ODLimitPriority</t>
+  </si>
+  <si>
+    <t>Access After Transfers</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>123456400</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
   </si>
 </sst>
 </file>
@@ -11487,8 +11557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E87C52-E524-468C-82CB-94433DA626DC}">
   <dimension ref="A1:BU8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31790,8 +31860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D31ED-617B-4B8F-A70A-91FE138461E4}">
   <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32057,14 +32127,14 @@
         <v>123456789</v>
       </c>
       <c r="AD2" s="84">
-        <v>123456789</v>
+        <v>123456400</v>
       </c>
       <c r="AE2" s="84" t="s">
         <v>1304</v>
       </c>
       <c r="AF2" s="83"/>
       <c r="AG2" s="32" t="s">
-        <v>1197</v>
+        <v>1316</v>
       </c>
       <c r="AH2" s="83" t="s">
         <v>702</v>
@@ -32477,324 +32547,315 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D40E7-DC0C-4955-ACF1-7A13D5BA89C9}">
-  <dimension ref="A1:BY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02681076-93F4-485D-9EAE-F716378CDB86}">
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="35.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="81" t="s">
         <v>402</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="81" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="81" t="s">
         <v>449</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="81" t="s">
         <v>450</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="87" t="s">
         <v>555</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="87" t="s">
         <v>513</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="87" t="s">
         <v>514</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="87" t="s">
         <v>515</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="87" t="s">
         <v>516</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="87" t="s">
         <v>517</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="87" t="s">
         <v>518</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="87" t="s">
         <v>519</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="87" t="s">
         <v>520</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="87" t="s">
         <v>565</v>
       </c>
-      <c r="AE1" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
+      <c r="AE1" s="87" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AG1" s="87" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
+      <c r="BQ1" s="85"/>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="83">
         <v>32</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="84" t="s">
         <v>553</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="84" t="s">
         <v>532</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
         <v>425</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19">
+      <c r="R2" s="83"/>
+      <c r="S2" s="84">
         <v>139</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="84" t="s">
         <v>534</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="84" t="s">
         <v>531</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="83" t="s">
         <v>526</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="83">
         <v>100</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="83" t="s">
         <v>425</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="83" t="s">
         <v>527</v>
       </c>
-      <c r="AB2" s="18"/>
+      <c r="AB2" s="83"/>
       <c r="AC2" s="28">
         <v>123456789</v>
       </c>
-      <c r="AD2" s="19">
-        <v>123456789</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
+      <c r="AD2" s="84">
+        <v>123456400</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AF2" s="83" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33047,6 +33108,331 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D40E7-DC0C-4955-ACF1-7A13D5BA89C9}">
+  <dimension ref="A1:BY2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="18">
+        <v>32</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19">
+        <v>139</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>123456789</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349F8E1-7BEB-4026-AC51-71D5D7249101}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
@@ -33378,7 +33764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B2626-D2AB-4007-9FA2-56022F2E3F1F}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
@@ -33711,7 +34097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -35481,6 +35867,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019EDEC9A4E612941ADCE12ED9A46EC47" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="67707202aeed7dac8e9e4df71c86e90c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4bceafc6-503a-421d-8cbd-850f1f7f2266" xmlns:ns3="e5117a5e-ac7d-49b1-8f57-8639945134ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03beff9ba104758a0cdc08ce573969c7" ns2:_="" ns3:_="">
     <xsd:import namespace="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
@@ -35697,7 +36089,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -35706,13 +36098,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A061FE9-7CA7-4E0A-B0E4-8908FF88E0D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35731,27 +36134,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2DA398-BFA5-48DD-867D-7907EF2FAE19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E886ED16-AB86-4B51-AE90-7B4E6D383E31}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D94B9F7-F069-4D52-B101-CEBDC8756CD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" firstSheet="56" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="754" firstSheet="54" activeTab="59" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -72,10 +72,12 @@
     <sheet name="PREMIER_TC059" sheetId="93" r:id="rId57"/>
     <sheet name="PREMIER_TC060" sheetId="89" r:id="rId58"/>
     <sheet name="PREMIER_TC061" sheetId="94" r:id="rId59"/>
-    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId60"/>
-    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId61"/>
-    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId62"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId63"/>
+    <sheet name="PREMIER_TC062" sheetId="96" r:id="rId60"/>
+    <sheet name="PREMIER_TC063" sheetId="95" r:id="rId61"/>
+    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId62"/>
+    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId63"/>
+    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId64"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId65"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1256,6 +1258,91 @@
 </comments>
 </file>
 
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mukh, Moksha (Noida)</author>
+  </authors>
+  <commentList>
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{2C1646B1-C24D-4369-83DC-694899F6B092}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Today's Date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{2BC2D9EB-70F1-44BF-B0A2-9B547545CE14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Future Date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{DA2AB9F9-2888-4E12-920E-74443691B9B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Today's Date
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -2359,7 +2446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6204" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="1337">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -4998,15 +5085,9 @@
     <t>Hold For Test</t>
   </si>
   <si>
-    <t>12/27/2021</t>
-  </si>
-  <si>
     <t>Not Pledged</t>
   </si>
   <si>
-    <t>12/23/2021</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -6303,13 +6384,79 @@
     <t>Access After Transfers</t>
   </si>
   <si>
+    <t>123456400</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayType</t>
+  </si>
+  <si>
+    <t>[3] TRANSFER</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPaydate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayFromNumber</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayThroughNumber</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayFromAmount</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayThroughAmount</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayFromTransCode</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayThroughTransCode</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayACHCompanyID</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayPayee</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayPayeeReason</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayPayeeComments</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayExpirationdate</t>
+  </si>
+  <si>
+    <t>ChangeDeposit_StopPayItemdate</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>XYZ Stop Payee</t>
+  </si>
+  <si>
+    <t>Test comments</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>01/31/2022</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>123456400</t>
-  </si>
-  <si>
-    <t>01/08/2022</t>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -11759,7 +11906,7 @@
         <v>154</v>
       </c>
       <c r="W2" s="56" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="X2">
         <v>201</v>
@@ -11779,7 +11926,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>293</v>
@@ -11818,10 +11965,10 @@
         <v>510</v>
       </c>
       <c r="S3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="T3" s="41" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>539</v>
@@ -11830,7 +11977,7 @@
         <v>531</v>
       </c>
       <c r="W3" s="40" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="X3" s="18">
         <v>500</v>
@@ -11850,7 +11997,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>293</v>
@@ -11889,19 +12036,19 @@
         <v>540</v>
       </c>
       <c r="S4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="T4" s="60" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="V4" s="61" t="s">
         <v>531</v>
       </c>
       <c r="W4" s="56" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="X4">
         <v>300</v>
@@ -11952,7 +12099,7 @@
         <v>154</v>
       </c>
       <c r="W5" s="56" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="X5">
         <v>150</v>
@@ -12389,7 +12536,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>293</v>
@@ -12424,7 +12571,7 @@
         <v>554</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="P2" s="68"/>
       <c r="Q2" s="70" t="s">
@@ -12432,10 +12579,10 @@
       </c>
       <c r="R2" s="68"/>
       <c r="S2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="T2" s="77" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="U2" s="71" t="s">
         <v>539</v>
@@ -12444,7 +12591,7 @@
         <v>531</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="X2" s="68">
         <v>209</v>
@@ -12830,7 +12977,7 @@
         <v>154</v>
       </c>
       <c r="X2" s="89" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Y2" s="83">
         <v>201</v>
@@ -12856,7 +13003,7 @@
         <v>563</v>
       </c>
       <c r="U3" s="90" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="V3" s="84" t="s">
         <v>539</v>
@@ -12865,7 +13012,7 @@
         <v>531</v>
       </c>
       <c r="X3" s="89" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Y3" s="83">
         <v>500</v>
@@ -12892,16 +13039,16 @@
         <v>564</v>
       </c>
       <c r="U4" s="60" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="V4" s="93" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W4" s="101" t="s">
         <v>531</v>
       </c>
       <c r="X4" s="92" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="Y4" s="80">
         <v>300</v>
@@ -12936,7 +13083,7 @@
         <v>154</v>
       </c>
       <c r="X5" s="92" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y5" s="80">
         <v>150</v>
@@ -12999,7 +13146,7 @@
       </c>
       <c r="R7" s="83"/>
       <c r="S7" s="80" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="T7" s="84" t="s">
         <v>559</v>
@@ -13791,7 +13938,7 @@
         <v>154</v>
       </c>
       <c r="W2" s="92" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="X2" s="80">
         <v>201</v>
@@ -13811,7 +13958,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>293</v>
@@ -13851,7 +13998,7 @@
       </c>
       <c r="S3" s="91"/>
       <c r="T3" s="94" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="U3" s="84" t="s">
         <v>539</v>
@@ -13860,7 +14007,7 @@
         <v>531</v>
       </c>
       <c r="W3" s="92" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="X3" s="80">
         <v>500</v>
@@ -13880,7 +14027,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>293</v>
@@ -13920,16 +14067,16 @@
       </c>
       <c r="S4" s="91"/>
       <c r="T4" s="90" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="U4" s="93" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="V4" s="84" t="s">
         <v>531</v>
       </c>
       <c r="W4" s="92" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="X4" s="80">
         <v>300</v>
@@ -13961,7 +14108,7 @@
         <v>154</v>
       </c>
       <c r="W5" s="92" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="X5" s="80">
         <v>150</v>
@@ -14024,7 +14171,7 @@
       </c>
       <c r="R8" s="83"/>
       <c r="S8" s="80" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="T8" s="84" t="s">
         <v>573</v>
@@ -14405,7 +14552,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>293</v>
@@ -14438,13 +14585,13 @@
         <v>593</v>
       </c>
       <c r="O2" s="96" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Q2" s="83" t="s">
         <v>510</v>
       </c>
       <c r="T2" s="94" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="U2" s="84" t="s">
         <v>539</v>
@@ -14516,7 +14663,7 @@
       </c>
       <c r="R4" s="83"/>
       <c r="S4" s="80" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="T4" s="84" t="s">
         <v>588</v>
@@ -14914,7 +15061,7 @@
         <v>154</v>
       </c>
       <c r="X2" s="92" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Y2" s="80">
         <v>201</v>
@@ -14940,7 +15087,7 @@
         <v>600</v>
       </c>
       <c r="U3" s="94" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V3" s="84" t="s">
         <v>539</v>
@@ -14949,7 +15096,7 @@
         <v>531</v>
       </c>
       <c r="X3" s="92" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Y3" s="80">
         <v>500</v>
@@ -14975,16 +15122,16 @@
         <v>601</v>
       </c>
       <c r="U4" s="90" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V4" s="93" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W4" s="84" t="s">
         <v>531</v>
       </c>
       <c r="X4" s="92" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="Y4" s="80">
         <v>300</v>
@@ -15019,7 +15166,7 @@
         <v>154</v>
       </c>
       <c r="X5" s="92" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y5" s="80">
         <v>150</v>
@@ -15082,7 +15229,7 @@
       </c>
       <c r="R7" s="83"/>
       <c r="S7" s="80" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="T7" s="84" t="s">
         <v>598</v>
@@ -15295,7 +15442,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15441,13 +15588,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>153</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E2" t="s">
         <v>154</v>
@@ -15459,7 +15606,7 @@
         <v>156</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="I2" t="s">
         <v>154</v>
@@ -16281,7 +16428,7 @@
         <v>154</v>
       </c>
       <c r="W2" s="89" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="X2" s="83">
         <v>201</v>
@@ -16350,7 +16497,7 @@
         <v>531</v>
       </c>
       <c r="W3" s="89" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="X3" s="83">
         <v>500</v>
@@ -16413,13 +16560,13 @@
         <v>629</v>
       </c>
       <c r="U4" s="84" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="V4" s="84" t="s">
         <v>531</v>
       </c>
       <c r="W4" s="89" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="X4" s="83">
         <v>300</v>
@@ -16451,7 +16598,7 @@
         <v>154</v>
       </c>
       <c r="W5" s="92" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="X5" s="83">
         <v>150</v>
@@ -16514,7 +16661,7 @@
       </c>
       <c r="R8" s="83"/>
       <c r="S8" s="80" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="T8" s="84" t="s">
         <v>614</v>
@@ -16895,7 +17042,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>293</v>
@@ -16928,13 +17075,13 @@
         <v>635</v>
       </c>
       <c r="O2" s="96" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q2" s="83" t="s">
         <v>510</v>
       </c>
       <c r="T2" s="94" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="U2" s="84" t="s">
         <v>539</v>
@@ -17006,7 +17153,7 @@
       </c>
       <c r="R4" s="83"/>
       <c r="S4" s="80" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="T4" s="84" t="s">
         <v>630</v>
@@ -17403,7 +17550,7 @@
         <v>154</v>
       </c>
       <c r="X2" s="89" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Y2" s="83">
         <v>201</v>
@@ -17430,7 +17577,7 @@
         <v>640</v>
       </c>
       <c r="U3" s="94" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="V3" s="84" t="s">
         <v>539</v>
@@ -17439,7 +17586,7 @@
         <v>531</v>
       </c>
       <c r="X3" s="89" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Y3" s="83">
         <v>500</v>
@@ -17466,16 +17613,16 @@
         <v>641</v>
       </c>
       <c r="U4" s="90" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="V4" s="93" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W4" s="84" t="s">
         <v>531</v>
       </c>
       <c r="X4" s="89" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Y4" s="83">
         <v>300</v>
@@ -17511,7 +17658,7 @@
         <v>154</v>
       </c>
       <c r="X5" s="92" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Y5" s="83">
         <v>150</v>
@@ -17575,7 +17722,7 @@
       </c>
       <c r="R7" s="83"/>
       <c r="S7" s="80" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="T7" s="84" t="s">
         <v>638</v>
@@ -18538,22 +18685,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>1011</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>1013</v>
       </c>
       <c r="H2" s="18">
         <v>19030</v>
@@ -18570,10 +18717,10 @@
         <v>531</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18" t="s">
@@ -18582,7 +18729,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="54"/>
       <c r="T2" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="U2" s="18" t="s">
         <v>539</v>
@@ -18592,10 +18739,10 @@
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z2" s="18">
         <v>46000</v>
@@ -18607,7 +18754,7 @@
         <v>425</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AD2" s="18">
         <v>12341001</v>
@@ -18617,13 +18764,13 @@
       </c>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH2" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI2" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="18"/>
@@ -18632,16 +18779,16 @@
       <c r="AN2" s="18"/>
       <c r="AO2" s="18"/>
       <c r="AP2" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ2" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR2" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS2" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT2" s="18" t="s">
         <v>702</v>
@@ -18684,19 +18831,19 @@
         <v>44</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>1022</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>455</v>
@@ -18716,10 +18863,10 @@
         <v>531</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18" t="s">
@@ -18727,10 +18874,10 @@
       </c>
       <c r="R3" s="18"/>
       <c r="S3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="U3" s="18" t="s">
         <v>534</v>
@@ -18740,10 +18887,10 @@
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y3" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z3" s="18">
         <v>47000</v>
@@ -18755,7 +18902,7 @@
         <v>425</v>
       </c>
       <c r="AC3" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AD3" s="18">
         <v>12341002</v>
@@ -18765,13 +18912,13 @@
       </c>
       <c r="AF3" s="18"/>
       <c r="AG3" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH3" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI3" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ3" s="18"/>
       <c r="AK3" s="18"/>
@@ -18780,16 +18927,16 @@
       <c r="AN3" s="18"/>
       <c r="AO3" s="18"/>
       <c r="AP3" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ3" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR3" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS3" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT3" s="18" t="s">
         <v>702</v>
@@ -18832,19 +18979,19 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1027</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1029</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>455</v>
@@ -18864,10 +19011,10 @@
         <v>531</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18" t="s">
@@ -18875,23 +19022,23 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>531</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z4" s="18">
         <v>48000</v>
@@ -18903,7 +19050,7 @@
         <v>425</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AD4" s="18">
         <v>12341003</v>
@@ -18913,13 +19060,13 @@
       </c>
       <c r="AF4" s="18"/>
       <c r="AG4" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH4" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI4" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
@@ -18928,16 +19075,16 @@
       <c r="AN4" s="18"/>
       <c r="AO4" s="18"/>
       <c r="AP4" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ4" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR4" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS4" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT4" s="18" t="s">
         <v>702</v>
@@ -18980,19 +19127,19 @@
         <v>44</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>1033</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>1035</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>455</v>
@@ -19012,10 +19159,10 @@
         <v>531</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18" t="s">
@@ -19023,23 +19170,23 @@
       </c>
       <c r="R5" s="18"/>
       <c r="S5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>531</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z5" s="18">
         <v>49000</v>
@@ -19051,7 +19198,7 @@
         <v>425</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AD5" s="18">
         <v>12341004</v>
@@ -19061,13 +19208,13 @@
       </c>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH5" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI5" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
@@ -19076,16 +19223,16 @@
       <c r="AN5" s="18"/>
       <c r="AO5" s="18"/>
       <c r="AP5" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ5" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR5" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS5" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT5" s="18" t="s">
         <v>702</v>
@@ -19128,19 +19275,19 @@
         <v>44</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>1039</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>1041</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>455</v>
@@ -19160,10 +19307,10 @@
         <v>154</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18" t="s">
@@ -19171,10 +19318,10 @@
       </c>
       <c r="R6" s="18"/>
       <c r="S6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>525</v>
@@ -19184,10 +19331,10 @@
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z6" s="18">
         <v>50000</v>
@@ -19199,7 +19346,7 @@
         <v>425</v>
       </c>
       <c r="AC6" s="18" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AD6" s="18">
         <v>12341005</v>
@@ -19209,13 +19356,13 @@
       </c>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH6" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI6" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="18"/>
@@ -19224,16 +19371,16 @@
       <c r="AN6" s="18"/>
       <c r="AO6" s="18"/>
       <c r="AP6" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ6" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR6" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS6" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT6" s="18" t="s">
         <v>702</v>
@@ -19276,19 +19423,19 @@
         <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1046</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1048</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>455</v>
@@ -19308,10 +19455,10 @@
         <v>154</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18" t="s">
@@ -19319,10 +19466,10 @@
       </c>
       <c r="R7" s="18"/>
       <c r="S7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>525</v>
@@ -19332,10 +19479,10 @@
       </c>
       <c r="W7" s="18"/>
       <c r="X7" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y7" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z7" s="18">
         <v>51000</v>
@@ -19347,7 +19494,7 @@
         <v>425</v>
       </c>
       <c r="AC7" s="51" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AD7" s="18">
         <v>12341006</v>
@@ -19357,13 +19504,13 @@
       </c>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI7" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
@@ -19372,16 +19519,16 @@
       <c r="AN7" s="18"/>
       <c r="AO7" s="18"/>
       <c r="AP7" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ7" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR7" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS7" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT7" s="18" t="s">
         <v>702</v>
@@ -19424,19 +19571,19 @@
         <v>44</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>455</v>
@@ -19456,10 +19603,10 @@
         <v>154</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18" t="s">
@@ -19467,10 +19614,10 @@
       </c>
       <c r="R8" s="18"/>
       <c r="S8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>525</v>
@@ -19480,10 +19627,10 @@
       </c>
       <c r="W8" s="18"/>
       <c r="X8" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z8" s="18">
         <v>52000</v>
@@ -19495,7 +19642,7 @@
         <v>425</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AD8" s="18">
         <v>12341007</v>
@@ -19505,13 +19652,13 @@
       </c>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI8" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
@@ -19520,16 +19667,16 @@
       <c r="AN8" s="18"/>
       <c r="AO8" s="18"/>
       <c r="AP8" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ8" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR8" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS8" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT8" s="18" t="s">
         <v>702</v>
@@ -19572,19 +19719,19 @@
         <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>1055</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>1057</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>455</v>
@@ -19604,10 +19751,10 @@
         <v>154</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18" t="s">
@@ -19615,10 +19762,10 @@
       </c>
       <c r="R9" s="18"/>
       <c r="S9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>525</v>
@@ -19628,10 +19775,10 @@
       </c>
       <c r="W9" s="18"/>
       <c r="X9" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y9" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z9" s="18">
         <v>53000</v>
@@ -19643,7 +19790,7 @@
         <v>425</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD9" s="18">
         <v>12341008</v>
@@ -19653,13 +19800,13 @@
       </c>
       <c r="AF9" s="18"/>
       <c r="AG9" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH9" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI9" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
@@ -19668,16 +19815,16 @@
       <c r="AN9" s="18"/>
       <c r="AO9" s="18"/>
       <c r="AP9" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ9" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR9" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS9" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT9" s="18" t="s">
         <v>702</v>
@@ -19720,19 +19867,19 @@
         <v>44</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>1061</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>1063</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>455</v>
@@ -19752,10 +19899,10 @@
         <v>154</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18" t="s">
@@ -19763,10 +19910,10 @@
       </c>
       <c r="R10" s="18"/>
       <c r="S10" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>525</v>
@@ -19776,10 +19923,10 @@
       </c>
       <c r="W10" s="18"/>
       <c r="X10" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y10" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z10" s="18">
         <v>54000</v>
@@ -19791,7 +19938,7 @@
         <v>425</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AD10" s="18">
         <v>12341009</v>
@@ -19801,13 +19948,13 @@
       </c>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH10" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI10" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
@@ -19819,13 +19966,13 @@
         <v>700</v>
       </c>
       <c r="AQ10" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AR10" s="18" t="s">
         <v>702</v>
       </c>
       <c r="AS10" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AT10" s="18" t="s">
         <v>702</v>
@@ -19900,7 +20047,7 @@
         <v>154</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>524</v>
@@ -20307,25 +20454,25 @@
         <v>45</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>1139</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>1141</v>
-      </c>
       <c r="G2" s="83" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="I2" s="83"/>
       <c r="J2" s="97" t="s">
@@ -20339,10 +20486,10 @@
         <v>234</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P2" s="83"/>
       <c r="Q2" s="97" t="s">
@@ -20351,7 +20498,7 @@
       <c r="R2" s="83"/>
       <c r="S2" s="83"/>
       <c r="T2" s="83" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="U2" s="97" t="s">
         <v>525</v>
@@ -20361,10 +20508,10 @@
       </c>
       <c r="W2" s="83"/>
       <c r="X2" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z2" s="83">
         <v>46000</v>
@@ -20376,7 +20523,7 @@
         <v>425</v>
       </c>
       <c r="AC2" s="83" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AD2" s="83">
         <v>12342011</v>
@@ -20386,13 +20533,13 @@
       </c>
       <c r="AF2" s="83"/>
       <c r="AG2" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH2" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI2" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ2" s="83"/>
       <c r="AK2" s="83"/>
@@ -20401,16 +20548,16 @@
       <c r="AN2" s="83"/>
       <c r="AO2" s="83"/>
       <c r="AP2" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ2" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR2" s="97" t="s">
         <v>702</v>
       </c>
       <c r="AS2" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT2" s="97" t="s">
         <v>702</v>
@@ -20445,25 +20592,25 @@
         <v>45</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F3" s="83" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>1144</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>1146</v>
       </c>
       <c r="I3" s="83"/>
       <c r="J3" s="97" t="s">
@@ -20477,10 +20624,10 @@
         <v>553</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="O3" s="106" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="P3" s="83"/>
       <c r="Q3" s="97" t="s">
@@ -20489,7 +20636,7 @@
       <c r="R3" s="83"/>
       <c r="S3" s="83"/>
       <c r="T3" s="83" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="U3" s="97" t="s">
         <v>539</v>
@@ -20499,10 +20646,10 @@
       </c>
       <c r="W3" s="83"/>
       <c r="X3" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z3" s="83">
         <v>46100</v>
@@ -20514,7 +20661,7 @@
         <v>425</v>
       </c>
       <c r="AC3" s="83" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AD3" s="83">
         <v>12342012</v>
@@ -20524,13 +20671,13 @@
       </c>
       <c r="AF3" s="83"/>
       <c r="AG3" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH3" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH3" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI3" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ3" s="83"/>
       <c r="AK3" s="83"/>
@@ -20539,16 +20686,16 @@
       <c r="AN3" s="83"/>
       <c r="AO3" s="83"/>
       <c r="AP3" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ3" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR3" s="107" t="s">
         <v>702</v>
       </c>
       <c r="AS3" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT3" s="97" t="s">
         <v>702</v>
@@ -20583,25 +20730,25 @@
         <v>45</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="F4" s="83" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H4" s="44" t="s">
         <v>1148</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>1150</v>
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="97" t="s">
@@ -20615,10 +20762,10 @@
         <v>553</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="O4" s="106" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="P4" s="83"/>
       <c r="Q4" s="97" t="s">
@@ -20627,20 +20774,20 @@
       <c r="R4" s="83"/>
       <c r="S4" s="83"/>
       <c r="T4" s="83" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="U4" s="97" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="V4" s="83" t="s">
         <v>531</v>
       </c>
       <c r="W4" s="83"/>
       <c r="X4" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z4" s="83">
         <v>46200</v>
@@ -20652,7 +20799,7 @@
         <v>425</v>
       </c>
       <c r="AC4" s="83" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AD4" s="83">
         <v>12342013</v>
@@ -20662,13 +20809,13 @@
       </c>
       <c r="AF4" s="83"/>
       <c r="AG4" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH4" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH4" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI4" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ4" s="83"/>
       <c r="AK4" s="83"/>
@@ -20677,16 +20824,16 @@
       <c r="AN4" s="83"/>
       <c r="AO4" s="83"/>
       <c r="AP4" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ4" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR4" s="107" t="s">
         <v>737</v>
       </c>
       <c r="AS4" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT4" s="97" t="s">
         <v>702</v>
@@ -20721,25 +20868,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F5" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>1152</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>1154</v>
       </c>
       <c r="I5" s="83"/>
       <c r="J5" s="97" t="s">
@@ -20753,10 +20900,10 @@
         <v>553</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="O5" s="106" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="P5" s="83"/>
       <c r="Q5" s="97" t="s">
@@ -20765,7 +20912,7 @@
       <c r="R5" s="83"/>
       <c r="S5" s="83"/>
       <c r="T5" s="83" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="U5" s="97" t="s">
         <v>534</v>
@@ -20775,10 +20922,10 @@
       </c>
       <c r="W5" s="83"/>
       <c r="X5" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y5" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z5" s="83">
         <v>46300</v>
@@ -20790,7 +20937,7 @@
         <v>425</v>
       </c>
       <c r="AC5" s="83" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AD5" s="83">
         <v>12342014</v>
@@ -20800,13 +20947,13 @@
       </c>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH5" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH5" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI5" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ5" s="83"/>
       <c r="AK5" s="83"/>
@@ -20815,16 +20962,16 @@
       <c r="AN5" s="83"/>
       <c r="AO5" s="83"/>
       <c r="AP5" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ5" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR5" s="107" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AS5" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT5" s="97" t="s">
         <v>702</v>
@@ -20859,25 +21006,25 @@
         <v>45</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F6" s="83" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>1156</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>1158</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="97" t="s">
@@ -20891,10 +21038,10 @@
         <v>553</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O6" s="106" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="P6" s="83"/>
       <c r="Q6" s="97" t="s">
@@ -20903,20 +21050,20 @@
       <c r="R6" s="83"/>
       <c r="S6" s="83"/>
       <c r="T6" s="83" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="U6" s="97" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="V6" s="83" t="s">
         <v>531</v>
       </c>
       <c r="W6" s="83"/>
       <c r="X6" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y6" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z6" s="83">
         <v>46400</v>
@@ -20928,7 +21075,7 @@
         <v>425</v>
       </c>
       <c r="AC6" s="83" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AD6" s="83">
         <v>12342015</v>
@@ -20938,13 +21085,13 @@
       </c>
       <c r="AF6" s="83"/>
       <c r="AG6" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH6" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH6" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI6" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ6" s="83"/>
       <c r="AK6" s="83"/>
@@ -20953,16 +21100,16 @@
       <c r="AN6" s="83"/>
       <c r="AO6" s="83"/>
       <c r="AP6" s="83" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ6" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR6" s="107" t="s">
         <v>865</v>
       </c>
       <c r="AS6" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT6" s="97" t="s">
         <v>702</v>
@@ -20997,25 +21144,25 @@
         <v>45</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F7" s="83" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>1160</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>1162</v>
       </c>
       <c r="I7" s="83"/>
       <c r="J7" s="97" t="s">
@@ -21029,10 +21176,10 @@
         <v>553</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="O7" s="106" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="97" t="s">
@@ -21041,20 +21188,20 @@
       <c r="R7" s="83"/>
       <c r="S7" s="83"/>
       <c r="T7" s="83" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="U7" s="97" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="V7" s="83" t="s">
         <v>531</v>
       </c>
       <c r="W7" s="83"/>
       <c r="X7" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y7" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z7" s="83">
         <v>46500</v>
@@ -21066,7 +21213,7 @@
         <v>425</v>
       </c>
       <c r="AC7" s="83" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AD7" s="83">
         <v>12342016</v>
@@ -21076,13 +21223,13 @@
       </c>
       <c r="AF7" s="83"/>
       <c r="AG7" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH7" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH7" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI7" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ7" s="83"/>
       <c r="AK7" s="83"/>
@@ -21091,16 +21238,16 @@
       <c r="AN7" s="83"/>
       <c r="AO7" s="83"/>
       <c r="AP7" s="83" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ7" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR7" s="107" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AS7" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT7" s="97" t="s">
         <v>702</v>
@@ -21135,25 +21282,25 @@
         <v>45</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F8" s="83" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>1164</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>1166</v>
       </c>
       <c r="I8" s="83"/>
       <c r="J8" s="97" t="s">
@@ -21167,10 +21314,10 @@
         <v>553</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="O8" s="106" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="P8" s="83"/>
       <c r="Q8" s="97" t="s">
@@ -21179,20 +21326,20 @@
       <c r="R8" s="83"/>
       <c r="S8" s="83"/>
       <c r="T8" s="83" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="U8" s="97" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="V8" s="83" t="s">
         <v>531</v>
       </c>
       <c r="W8" s="83"/>
       <c r="X8" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y8" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z8" s="83">
         <v>46600</v>
@@ -21204,7 +21351,7 @@
         <v>425</v>
       </c>
       <c r="AC8" s="83" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AD8" s="83">
         <v>12342017</v>
@@ -21214,13 +21361,13 @@
       </c>
       <c r="AF8" s="83"/>
       <c r="AG8" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH8" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH8" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI8" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ8" s="83"/>
       <c r="AK8" s="83"/>
@@ -21229,16 +21376,16 @@
       <c r="AN8" s="83"/>
       <c r="AO8" s="83"/>
       <c r="AP8" s="83" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ8" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR8" s="107" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AS8" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT8" s="97" t="s">
         <v>702</v>
@@ -21273,25 +21420,25 @@
         <v>45</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>293</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F9" s="83" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>1168</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>1170</v>
       </c>
       <c r="I9" s="83"/>
       <c r="J9" s="97" t="s">
@@ -21305,10 +21452,10 @@
         <v>553</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="O9" s="106" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="P9" s="83"/>
       <c r="Q9" s="97" t="s">
@@ -21317,20 +21464,20 @@
       <c r="R9" s="83"/>
       <c r="S9" s="83"/>
       <c r="T9" s="83" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="U9" s="97" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="V9" s="83" t="s">
         <v>531</v>
       </c>
       <c r="W9" s="83"/>
       <c r="X9" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y9" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z9" s="83">
         <v>46700</v>
@@ -21342,7 +21489,7 @@
         <v>425</v>
       </c>
       <c r="AC9" s="83" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AD9" s="83">
         <v>12342018</v>
@@ -21352,13 +21499,13 @@
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH9" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH9" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI9" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ9" s="83"/>
       <c r="AK9" s="83"/>
@@ -21367,16 +21514,16 @@
       <c r="AN9" s="83"/>
       <c r="AO9" s="83"/>
       <c r="AP9" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ9" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR9" s="97" t="s">
         <v>702</v>
       </c>
       <c r="AS9" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT9" s="97" t="s">
         <v>702</v>
@@ -21411,16 +21558,16 @@
         <v>45</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>156</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>626</v>
@@ -21429,7 +21576,7 @@
         <v>455</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I10" s="83"/>
       <c r="J10" s="97" t="s">
@@ -21443,10 +21590,10 @@
         <v>234</v>
       </c>
       <c r="N10" s="83" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P10" s="83"/>
       <c r="Q10" s="97" t="s">
@@ -21455,7 +21602,7 @@
       <c r="R10" s="83"/>
       <c r="S10" s="83"/>
       <c r="T10" s="83" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="U10" s="97" t="s">
         <v>525</v>
@@ -21465,10 +21612,10 @@
       </c>
       <c r="W10" s="83"/>
       <c r="X10" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y10" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z10" s="83">
         <v>46800</v>
@@ -21480,7 +21627,7 @@
         <v>425</v>
       </c>
       <c r="AC10" s="83" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AD10" s="83">
         <v>12342019</v>
@@ -21490,13 +21637,13 @@
       </c>
       <c r="AF10" s="83"/>
       <c r="AG10" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH10" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH10" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI10" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ10" s="83"/>
       <c r="AK10" s="83"/>
@@ -21505,16 +21652,16 @@
       <c r="AN10" s="83"/>
       <c r="AO10" s="83"/>
       <c r="AP10" s="83" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ10" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR10" s="97" t="s">
         <v>702</v>
       </c>
       <c r="AS10" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT10" s="97" t="s">
         <v>702</v>
@@ -21549,25 +21696,25 @@
         <v>45</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C11" s="83" t="s">
         <v>156</v>
       </c>
       <c r="D11" s="83" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F11" s="83" t="s">
         <v>1179</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="83" t="s">
         <v>1180</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="H11" s="44" t="s">
         <v>1181</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>1183</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="97" t="s">
@@ -21581,10 +21728,10 @@
         <v>234</v>
       </c>
       <c r="N11" s="83" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="O11" s="83" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P11" s="83"/>
       <c r="Q11" s="97" t="s">
@@ -21593,7 +21740,7 @@
       <c r="R11" s="83"/>
       <c r="S11" s="83"/>
       <c r="T11" s="83" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="U11" s="97" t="s">
         <v>525</v>
@@ -21603,10 +21750,10 @@
       </c>
       <c r="W11" s="83"/>
       <c r="X11" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y11" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z11" s="83">
         <v>46900</v>
@@ -21618,7 +21765,7 @@
         <v>425</v>
       </c>
       <c r="AC11" s="83" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AD11" s="83">
         <v>12342020</v>
@@ -21628,13 +21775,13 @@
       </c>
       <c r="AF11" s="83"/>
       <c r="AG11" s="83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH11" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH11" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI11" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ11" s="83"/>
       <c r="AK11" s="83"/>
@@ -21646,13 +21793,13 @@
         <v>700</v>
       </c>
       <c r="AQ11" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR11" s="97" t="s">
         <v>702</v>
       </c>
       <c r="AS11" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT11" s="97" t="s">
         <v>702</v>
@@ -21755,25 +21902,25 @@
         <v>45</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>1068</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>1070</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="46" t="s">
@@ -21787,10 +21934,10 @@
         <v>234</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="46" t="s">
@@ -21798,10 +21945,10 @@
       </c>
       <c r="R13" s="18"/>
       <c r="S13" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="U13" s="47" t="s">
         <v>525</v>
@@ -21811,10 +21958,10 @@
       </c>
       <c r="W13" s="18"/>
       <c r="X13" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y13" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z13" s="18">
         <v>45000</v>
@@ -21826,7 +21973,7 @@
         <v>425</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AD13" s="18">
         <v>12342001</v>
@@ -21836,13 +21983,13 @@
       </c>
       <c r="AF13" s="18"/>
       <c r="AG13" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH13" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI13" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
@@ -21851,16 +21998,16 @@
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ13" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR13" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS13" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT13" s="46" t="s">
         <v>702</v>
@@ -21903,25 +22050,25 @@
         <v>45</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E14" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>1075</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="H14" s="44" t="s">
         <v>1076</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>1078</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="46" t="s">
@@ -21935,10 +22082,10 @@
         <v>553</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="46" t="s">
@@ -21946,23 +22093,23 @@
       </c>
       <c r="R14" s="18"/>
       <c r="S14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>531</v>
       </c>
       <c r="W14" s="18"/>
       <c r="X14" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y14" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z14" s="18">
         <v>45100</v>
@@ -21974,7 +22121,7 @@
         <v>425</v>
       </c>
       <c r="AC14" s="18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AD14" s="18">
         <v>12342002</v>
@@ -21984,13 +22131,13 @@
       </c>
       <c r="AF14" s="18"/>
       <c r="AG14" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH14" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH14" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI14" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ14" s="18"/>
       <c r="AK14" s="18"/>
@@ -21999,16 +22146,16 @@
       <c r="AN14" s="18"/>
       <c r="AO14" s="18"/>
       <c r="AP14" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ14" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR14" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS14" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT14" s="46" t="s">
         <v>702</v>
@@ -22043,25 +22190,25 @@
         <v>45</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>1083</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="H15" s="44" t="s">
         <v>1084</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>1086</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="46" t="s">
@@ -22075,10 +22222,10 @@
         <v>553</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="46" t="s">
@@ -22086,23 +22233,23 @@
       </c>
       <c r="R15" s="18"/>
       <c r="S15" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="V15" s="18" t="s">
         <v>531</v>
       </c>
       <c r="W15" s="18"/>
       <c r="X15" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y15" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z15" s="18">
         <v>45200</v>
@@ -22114,7 +22261,7 @@
         <v>425</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AD15" s="18">
         <v>12342003</v>
@@ -22124,13 +22271,13 @@
       </c>
       <c r="AF15" s="18"/>
       <c r="AG15" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH15" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH15" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI15" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
@@ -22142,13 +22289,13 @@
         <v>700</v>
       </c>
       <c r="AQ15" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR15" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS15" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT15" s="46" t="s">
         <v>702</v>
@@ -22189,19 +22336,19 @@
         <v>156</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>1088</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>1090</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="46" t="s">
@@ -22215,10 +22362,10 @@
         <v>234</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="46" t="s">
@@ -22226,7 +22373,7 @@
       </c>
       <c r="R16" s="18"/>
       <c r="S16" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="T16" s="18" t="s">
         <v>573</v>
@@ -22239,10 +22386,10 @@
       </c>
       <c r="W16" s="18"/>
       <c r="X16" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y16" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z16" s="18">
         <v>45300</v>
@@ -22254,7 +22401,7 @@
         <v>425</v>
       </c>
       <c r="AC16" s="18" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AD16" s="18">
         <v>12342004</v>
@@ -22264,13 +22411,13 @@
       </c>
       <c r="AF16" s="18"/>
       <c r="AG16" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH16" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI16" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="18"/>
@@ -22279,16 +22426,16 @@
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ16" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR16" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS16" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT16" s="46" t="s">
         <v>702</v>
@@ -22323,25 +22470,25 @@
         <v>45</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>1110</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="G17" s="18" t="s">
         <v>1111</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="H17" s="44" t="s">
         <v>1112</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>1114</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="46" t="s">
@@ -22355,10 +22502,10 @@
         <v>234</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="46" t="s">
@@ -22366,10 +22513,10 @@
       </c>
       <c r="R17" s="18"/>
       <c r="S17" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="U17" s="47" t="s">
         <v>525</v>
@@ -22379,10 +22526,10 @@
       </c>
       <c r="W17" s="18"/>
       <c r="X17" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Y17" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z17" s="18">
         <v>45600</v>
@@ -22394,7 +22541,7 @@
         <v>425</v>
       </c>
       <c r="AC17" s="18" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AD17" s="18">
         <v>12342007</v>
@@ -22404,13 +22551,13 @@
       </c>
       <c r="AF17" s="18"/>
       <c r="AG17" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AH17" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AI17" s="24" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
@@ -22419,16 +22566,16 @@
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ17" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR17" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS17" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT17" s="46" t="s">
         <v>702</v>
@@ -22463,25 +22610,25 @@
         <v>45</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>1102</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="G18" s="18" t="s">
         <v>1103</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="H18" s="44" t="s">
         <v>1104</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>1106</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="46" t="s">
@@ -22495,10 +22642,10 @@
         <v>234</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="46" t="s">
@@ -22509,7 +22656,7 @@
         <v>192</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="U18" s="47" t="s">
         <v>525</v>
@@ -22519,10 +22666,10 @@
       </c>
       <c r="W18" s="18"/>
       <c r="X18" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y18" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z18" s="18">
         <v>45500</v>
@@ -22534,7 +22681,7 @@
         <v>425</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AD18" s="18">
         <v>12342006</v>
@@ -22544,13 +22691,13 @@
       </c>
       <c r="AF18" s="18"/>
       <c r="AG18" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH18" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH18" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI18" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18"/>
@@ -22559,16 +22706,16 @@
       <c r="AN18" s="18"/>
       <c r="AO18" s="18"/>
       <c r="AP18" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ18" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR18" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS18" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT18" s="46" t="s">
         <v>702</v>
@@ -22603,25 +22750,25 @@
         <v>45</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>1094</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="G19" s="18" t="s">
         <v>1095</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="H19" s="44" t="s">
         <v>1096</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>1098</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="46" t="s">
@@ -22635,10 +22782,10 @@
         <v>234</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="46" t="s">
@@ -22649,7 +22796,7 @@
         <v>191</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="U19" s="47" t="s">
         <v>525</v>
@@ -22659,10 +22806,10 @@
       </c>
       <c r="W19" s="18"/>
       <c r="X19" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y19" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z19" s="18">
         <v>45400</v>
@@ -22674,7 +22821,7 @@
         <v>425</v>
       </c>
       <c r="AC19" s="18" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD19" s="18">
         <v>12342005</v>
@@ -22684,13 +22831,13 @@
       </c>
       <c r="AF19" s="18"/>
       <c r="AG19" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH19" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH19" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI19" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="18"/>
@@ -22699,16 +22846,16 @@
       <c r="AN19" s="18"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ19" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR19" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS19" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT19" s="46" t="s">
         <v>702</v>
@@ -22743,25 +22890,25 @@
         <v>45</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>1118</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="G20" s="18" t="s">
         <v>1119</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="H20" s="44" t="s">
         <v>1120</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>1122</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="46" t="s">
@@ -22775,10 +22922,10 @@
         <v>234</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="46" t="s">
@@ -22789,7 +22936,7 @@
         <v>194</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="U20" s="47" t="s">
         <v>525</v>
@@ -22799,10 +22946,10 @@
       </c>
       <c r="W20" s="18"/>
       <c r="X20" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y20" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z20" s="18">
         <v>45700</v>
@@ -22814,7 +22961,7 @@
         <v>425</v>
       </c>
       <c r="AC20" s="18" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AD20" s="18">
         <v>12342008</v>
@@ -22824,13 +22971,13 @@
       </c>
       <c r="AF20" s="18"/>
       <c r="AG20" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH20" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH20" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI20" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="18"/>
@@ -22839,16 +22986,16 @@
       <c r="AN20" s="18"/>
       <c r="AO20" s="18"/>
       <c r="AP20" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AQ20" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR20" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS20" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT20" s="46" t="s">
         <v>702</v>
@@ -22883,25 +23030,25 @@
         <v>45</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>1125</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>1127</v>
-      </c>
       <c r="G21" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="46" t="s">
@@ -22915,10 +23062,10 @@
         <v>234</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="46" t="s">
@@ -22926,10 +23073,10 @@
       </c>
       <c r="R21" s="18"/>
       <c r="S21" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="U21" s="47" t="s">
         <v>525</v>
@@ -22939,10 +23086,10 @@
       </c>
       <c r="W21" s="18"/>
       <c r="X21" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z21" s="18">
         <v>45800</v>
@@ -22954,7 +23101,7 @@
         <v>425</v>
       </c>
       <c r="AC21" s="18" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AD21" s="18">
         <v>12342009</v>
@@ -22964,13 +23111,13 @@
       </c>
       <c r="AF21" s="18"/>
       <c r="AG21" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH21" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH21" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI21" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="18"/>
@@ -22979,16 +23126,16 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ21" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR21" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS21" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT21" s="46" t="s">
         <v>702</v>
@@ -23023,25 +23170,25 @@
         <v>45</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>1131</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="G22" s="18" t="s">
         <v>1132</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="H22" s="44" t="s">
         <v>1133</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>1135</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="46" t="s">
@@ -23055,10 +23202,10 @@
         <v>234</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="46" t="s">
@@ -23066,10 +23213,10 @@
       </c>
       <c r="R22" s="18"/>
       <c r="S22" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="U22" s="47" t="s">
         <v>525</v>
@@ -23079,10 +23226,10 @@
       </c>
       <c r="W22" s="18"/>
       <c r="X22" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y22" s="24" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Z22" s="18">
         <v>45900</v>
@@ -23094,7 +23241,7 @@
         <v>425</v>
       </c>
       <c r="AC22" s="18" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AD22" s="18">
         <v>12342010</v>
@@ -23104,13 +23251,13 @@
       </c>
       <c r="AF22" s="18"/>
       <c r="AG22" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH22" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="AH22" s="24" t="s">
-        <v>1197</v>
-      </c>
       <c r="AI22" s="24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="18"/>
@@ -23119,16 +23266,16 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="18"/>
       <c r="AP22" s="18" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AQ22" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AR22" s="46" t="s">
         <v>702</v>
       </c>
       <c r="AS22" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AT22" s="46" t="s">
         <v>702</v>
@@ -23195,7 +23342,7 @@
         <v>234</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="O26" s="47" t="s">
         <v>524</v>
@@ -26650,8 +26797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FA3E2D-60C8-4DF0-9CE9-ED98C705CD60}">
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1:BT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27108,8 +27255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE675A3-1A5C-422D-A911-B1ED46D0F1B6}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1:BR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28625,7 +28772,7 @@
         <v>800</v>
       </c>
       <c r="X2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -31541,9 +31688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1967A3-9B02-4B78-97A0-50CCBA6B04C2}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31860,8 +32005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D31ED-617B-4B8F-A70A-91FE138461E4}">
   <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31995,19 +32140,19 @@
         <v>565</v>
       </c>
       <c r="AE1" s="87" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="AF1" s="87" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="AG1" s="87" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="AH1" s="87" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="AI1" s="87" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AJ1" s="85"/>
       <c r="AK1" s="85"/>
@@ -32048,7 +32193,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>528</v>
@@ -32130,17 +32275,17 @@
         <v>123456400</v>
       </c>
       <c r="AE2" s="84" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="AF2" s="83"/>
       <c r="AG2" s="32" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="AH2" s="83" t="s">
         <v>702</v>
       </c>
       <c r="AI2" s="32" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="AJ2" s="83"/>
       <c r="AK2" s="83"/>
@@ -32189,8 +32334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A69EF9-767A-45B4-966E-C374C91ED942}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32396,7 +32541,7 @@
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -32474,8 +32619,8 @@
       <c r="AC2" s="28">
         <v>123456789</v>
       </c>
-      <c r="AD2" s="19">
-        <v>123456789</v>
+      <c r="AD2" s="32" t="s">
+        <v>1312</v>
       </c>
       <c r="AE2" s="19" t="s">
         <v>878</v>
@@ -32484,24 +32629,24 @@
         <v>864</v>
       </c>
       <c r="AG2" s="32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AH2" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="32" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AL2" s="32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="AN2" s="18" t="s">
         <v>881</v>
-      </c>
-      <c r="AL2" s="32" t="s">
-        <v>879</v>
-      </c>
-      <c r="AM2" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>883</v>
       </c>
       <c r="AO2" s="18"/>
       <c r="AP2" s="18"/>
@@ -32550,8 +32695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02681076-93F4-485D-9EAE-F716378CDB86}">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32683,13 +32828,13 @@
         <v>565</v>
       </c>
       <c r="AE1" s="87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AF1" s="87" t="s">
         <v>1310</v>
       </c>
-      <c r="AF1" s="87" t="s">
-        <v>1312</v>
-      </c>
       <c r="AG1" s="87" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="AH1" s="85"/>
       <c r="AI1" s="85"/>
@@ -32730,7 +32875,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>528</v>
@@ -32812,13 +32957,13 @@
         <v>123456400</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>1314</v>
+        <v>1335</v>
       </c>
       <c r="AF2" s="83" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="AH2" s="83"/>
       <c r="AI2" s="83"/>
@@ -33108,11 +33253,698 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A292A3-4FD8-44F7-A90F-51249537574B}">
+  <dimension ref="A1:BN2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="27.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="35.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="34.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="25.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="38.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI1" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="83">
+        <v>32</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84">
+        <v>139</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="84">
+        <v>123456400</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG2" s="84" t="s">
+        <v>755</v>
+      </c>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="AJ2" s="84" t="s">
+        <v>758</v>
+      </c>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B95B07-028B-4424-89B0-A04EDFEAF2A4}">
+  <dimension ref="A1:BP2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="27.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38" style="80" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="40.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="37.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="38.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AG1" s="87" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AH1" s="87" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AI1" s="87" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AJ1" s="85" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AK1" s="87" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AL1" s="85" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AM1" s="87" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AN1" s="85" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AO1" s="85" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AP1" s="85" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AQ1" s="85" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AR1" s="85" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="83">
+        <v>32</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84">
+        <v>139</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD2" s="84">
+        <v>123456400</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="24" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AP2" s="83" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AQ2" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR2" s="83" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D40E7-DC0C-4955-ACF1-7A13D5BA89C9}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33294,7 +34126,7 @@
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -33432,12 +34264,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349F8E1-7BEB-4026-AC51-71D5D7249101}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33567,13 +34399,13 @@
         <v>565</v>
       </c>
       <c r="AE1" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG1" s="27" t="s">
         <v>884</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>885</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>886</v>
       </c>
       <c r="AH1" s="20"/>
       <c r="AI1" s="20"/>
@@ -33623,7 +34455,7 @@
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -33705,13 +34537,13 @@
         <v>123456789</v>
       </c>
       <c r="AE2" s="32" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="AG2" s="32" t="s">
         <v>887</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>888</v>
-      </c>
-      <c r="AG2" s="32" t="s">
-        <v>889</v>
       </c>
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
@@ -33764,12 +34596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B2626-D2AB-4007-9FA2-56022F2E3F1F}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33903,13 +34735,13 @@
         <v>604</v>
       </c>
       <c r="AF1" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="AH1" s="27" t="s">
         <v>890</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>892</v>
       </c>
       <c r="AI1" s="20"/>
       <c r="AJ1" s="20"/>
@@ -33956,7 +34788,7 @@
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -34038,7 +34870,7 @@
         <v>123456789</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AF2" s="24" t="s">
         <v>154</v>
@@ -34047,7 +34879,7 @@
         <v>154</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
@@ -34097,7 +34929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -34270,10 +35102,10 @@
         <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>124</v>
@@ -34282,31 +35114,31 @@
         <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>126</v>
@@ -34315,28 +35147,28 @@
         <v>127</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>129</v>
@@ -34348,7 +35180,7 @@
         <v>131</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>132</v>
@@ -34366,19 +35198,19 @@
         <v>138</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>139</v>
@@ -34393,85 +35225,85 @@
         <v>142</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>144</v>
@@ -34489,67 +35321,67 @@
         <v>148</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="CU1" s="1" t="s">
         <v>149</v>
@@ -34561,79 +35393,79 @@
         <v>151</v>
       </c>
       <c r="CX1" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="DW1" s="1" t="s">
         <v>152</v>
@@ -34651,40 +35483,40 @@
         <v>405</v>
       </c>
       <c r="EB1" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="ED1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>1000</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>1002</v>
       </c>
       <c r="EN1" s="4" t="s">
         <v>406</v>
@@ -34708,7 +35540,7 @@
         <v>412</v>
       </c>
       <c r="EU1" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="EV1" s="4" t="s">
         <v>413</v>
@@ -34744,10 +35576,10 @@
         <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G2" t="s">
         <v>234</v>
@@ -34758,10 +35590,10 @@
       <c r="I2" s="2"/>
       <c r="N2" s="3"/>
       <c r="S2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="Y2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AB2" t="s">
         <v>110</v>
@@ -34794,7 +35626,7 @@
         <v>163</v>
       </c>
       <c r="AS2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>165</v>
@@ -34812,7 +35644,7 @@
         <v>169</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="CC2" s="2" t="s">
         <v>247</v>
@@ -34821,7 +35653,7 @@
         <v>227</v>
       </c>
       <c r="CE2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="CF2" t="s">
         <v>248</v>
@@ -35867,12 +36699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019EDEC9A4E612941ADCE12ED9A46EC47" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="67707202aeed7dac8e9e4df71c86e90c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4bceafc6-503a-421d-8cbd-850f1f7f2266" xmlns:ns3="e5117a5e-ac7d-49b1-8f57-8639945134ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03beff9ba104758a0cdc08ce573969c7" ns2:_="" ns3:_="">
     <xsd:import namespace="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
@@ -36089,7 +36915,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -36098,24 +36924,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A061FE9-7CA7-4E0A-B0E4-8908FF88E0D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36134,10 +36949,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2DA398-BFA5-48DD-867D-7907EF2FAE19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D94B9F7-F069-4D52-B101-CEBDC8756CD4}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7BC95C2-DEA4-4D43-AD3B-766BE0D82FB4}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="754" firstSheet="54" activeTab="59" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" tabRatio="754" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -74,10 +74,13 @@
     <sheet name="PREMIER_TC061" sheetId="94" r:id="rId59"/>
     <sheet name="PREMIER_TC062" sheetId="96" r:id="rId60"/>
     <sheet name="PREMIER_TC063" sheetId="95" r:id="rId61"/>
-    <sheet name="PREMIER_TC065" sheetId="90" r:id="rId62"/>
-    <sheet name="PREMIER_TC066" sheetId="91" r:id="rId63"/>
-    <sheet name="PREMIER_TC067" sheetId="92" r:id="rId64"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId65"/>
+    <sheet name="PREMIER_TC064" sheetId="90" r:id="rId62"/>
+    <sheet name="PREMIER_TC065" sheetId="91" r:id="rId63"/>
+    <sheet name="PREMIER_TC066" sheetId="92" r:id="rId64"/>
+    <sheet name="PREMIER_TC068" sheetId="100" r:id="rId65"/>
+    <sheet name="PREMIER_TC070" sheetId="98" r:id="rId66"/>
+    <sheet name="PREMIER_TC072" sheetId="99" r:id="rId67"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId68"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2446,7 +2449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="1338">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -6457,6 +6460,9 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>123456407</t>
   </si>
 </sst>
 </file>
@@ -11704,8 +11710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E87C52-E524-468C-82CB-94433DA626DC}">
   <dimension ref="A1:BU8"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13358,8 +13364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FDCEA6-A24C-41FA-8532-F17DEB4E077C}">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27704,7 +27710,7 @@
   <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="BQ1" sqref="BQ1:BQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33256,8 +33262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A292A3-4FD8-44F7-A90F-51249537574B}">
   <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33943,8 +33949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D40E7-DC0C-4955-ACF1-7A13D5BA89C9}">
   <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34126,7 +34132,7 @@
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -34455,7 +34461,7 @@
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -34600,8 +34606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B2626-D2AB-4007-9FA2-56022F2E3F1F}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34788,7 +34794,7 @@
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>528</v>
@@ -34930,6 +34936,1375 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9DF5A0-6BE8-40C8-B97A-0F562305C744}">
+  <dimension ref="A1:BW3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="80"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="33" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
+      <c r="BQ1" s="85"/>
+      <c r="BR1" s="85"/>
+      <c r="BS1" s="85"/>
+      <c r="BT1" s="85"/>
+      <c r="BU1" s="85"/>
+      <c r="BV1" s="85"/>
+      <c r="BW1" s="85"/>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83">
+        <v>123456407</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="83"/>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>533</v>
+      </c>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84">
+        <v>139</v>
+      </c>
+      <c r="T3" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="U3" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="V3" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="W3" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="X3" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y3" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA3" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD3" s="84">
+        <v>123456789</v>
+      </c>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{5047CC97-0E11-48E8-B7A3-D8203ECCA51C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85096E6-3CB7-489D-BAB3-2F5ED902E3F7}">
+  <dimension ref="A1:BY3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="80"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="26" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="40.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
+      <c r="BQ1" s="85"/>
+      <c r="BR1" s="85"/>
+      <c r="BS1" s="85"/>
+      <c r="BT1" s="85"/>
+      <c r="BU1" s="85"/>
+      <c r="BV1" s="85"/>
+      <c r="BW1" s="85"/>
+      <c r="BX1" s="85"/>
+      <c r="BY1" s="85"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83">
+        <v>123456407</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="83"/>
+      <c r="BX2" s="83"/>
+      <c r="BY2" s="83"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>533</v>
+      </c>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84">
+        <v>139</v>
+      </c>
+      <c r="T3" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="U3" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="V3" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="W3" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="X3" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y3" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA3" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD3" s="84">
+        <v>123456789</v>
+      </c>
+      <c r="AE3" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF3" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{E2A72A73-AF33-48FF-826D-F5B2F8EFBA11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF02033-140F-4D64-A663-7C6E0444E52F}">
+  <dimension ref="A1:BY3"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="80"/>
+    <col min="2" max="2" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.42578125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.28515625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="30.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="35.5703125" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="29.140625" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="32.85546875" style="80" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>888</v>
+      </c>
+      <c r="AG1" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="AH1" s="87" t="s">
+        <v>890</v>
+      </c>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="85"/>
+      <c r="BQ1" s="85"/>
+      <c r="BR1" s="85"/>
+      <c r="BS1" s="85"/>
+      <c r="BT1" s="85"/>
+      <c r="BU1" s="85"/>
+      <c r="BV1" s="85"/>
+      <c r="BW1" s="85"/>
+      <c r="BX1" s="85"/>
+      <c r="BY1" s="85"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA2" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83">
+        <v>123456407</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH2" s="83" t="s">
+        <v>892</v>
+      </c>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="83"/>
+      <c r="BX2" s="83"/>
+      <c r="BY2" s="83"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>533</v>
+      </c>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84">
+        <v>139</v>
+      </c>
+      <c r="T3" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="U3" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="V3" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="W3" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="X3" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y3" s="83">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA3" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="AD3" s="84">
+        <v>123456789</v>
+      </c>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{134885BB-1B46-42B4-92C9-F366C6B7F1D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E30E9A-CE1D-49C6-81DC-BEC64F8A6CBB}">
   <dimension ref="A1:FN3"/>
   <sheetViews>
@@ -36699,6 +38074,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019EDEC9A4E612941ADCE12ED9A46EC47" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="67707202aeed7dac8e9e4df71c86e90c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4bceafc6-503a-421d-8cbd-850f1f7f2266" xmlns:ns3="e5117a5e-ac7d-49b1-8f57-8639945134ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03beff9ba104758a0cdc08ce573969c7" ns2:_="" ns3:_="">
     <xsd:import namespace="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
@@ -36915,7 +38296,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -36924,13 +38305,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A061FE9-7CA7-4E0A-B0E4-8908FF88E0D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36949,27 +38341,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2DA398-BFA5-48DD-867D-7907EF2FAE19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701F2B0-8921-4568-B42C-DC82153FFB77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4bceafc6-503a-421d-8cbd-850f1f7f2266"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5117a5e-ac7d-49b1-8f57-8639945134ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/Premier/PremierTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/Premier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7BC95C2-DEA4-4D43-AD3B-766BE0D82FB4}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{CE8B556E-AF5C-43ED-99A3-6BA22AB7EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9EABDFA-6D6A-4EB7-82EE-8164AB035106}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" tabRatio="754" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" firstSheet="62" activeTab="68" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -77,10 +77,13 @@
     <sheet name="PREMIER_TC064" sheetId="90" r:id="rId62"/>
     <sheet name="PREMIER_TC065" sheetId="91" r:id="rId63"/>
     <sheet name="PREMIER_TC066" sheetId="92" r:id="rId64"/>
-    <sheet name="PREMIER_TC068" sheetId="100" r:id="rId65"/>
-    <sheet name="PREMIER_TC070" sheetId="98" r:id="rId66"/>
-    <sheet name="PREMIER_TC072" sheetId="99" r:id="rId67"/>
-    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId68"/>
+    <sheet name="PREMIER_TC067" sheetId="101" r:id="rId65"/>
+    <sheet name="PREMIER_TC068" sheetId="100" r:id="rId66"/>
+    <sheet name="PREMIER_TC069" sheetId="103" r:id="rId67"/>
+    <sheet name="PREMIER_TC070" sheetId="98" r:id="rId68"/>
+    <sheet name="PREMIER_TC071" sheetId="104" r:id="rId69"/>
+    <sheet name="PREMIER_TC072" sheetId="99" r:id="rId70"/>
+    <sheet name="PREMIER_CustAllFields" sheetId="30" r:id="rId71"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1346,6 +1349,192 @@
 </comments>
 </file>
 
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mukh, Moksha (Noida)</author>
+  </authors>
+  <commentList>
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{AB315C9C-C8C8-4A4C-8173-4CA60F0A5F10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Today's Date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{A3DD236E-FF42-4A12-9EF5-30E8EB0C674B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Future Date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{1A7A2A89-1627-4FFC-9381-17126BB043D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Future Date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{05BFB96B-19DD-4742-BAF3-10F66BA51833}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Today's date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{1FC7C680-5CEB-4F06-A49F-7FF4981AF7AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Future Date
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mukh, Moksha (Noida)</author>
+  </authors>
+  <commentList>
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{DB04E842-DF13-4A6F-93CE-4D79B5FE537E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Today's Date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{C31B9B6C-7968-4FFD-97A7-E133ACC3C612}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Future Date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{317A5A70-4F15-4D4B-839A-AFC380EC4A9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mukh, Moksha (Noida):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Today's Date
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -2449,7 +2638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="1344">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -6463,6 +6652,24 @@
   </si>
   <si>
     <t>123456407</t>
+  </si>
+  <si>
+    <t>123456404</t>
+  </si>
+  <si>
+    <t>01/25/2022</t>
+  </si>
+  <si>
+    <t>02/27/2022</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>02/26/2022</t>
+  </si>
+  <si>
+    <t>[3] CLOSE WD</t>
   </si>
 </sst>
 </file>
@@ -11710,8 +11917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E87C52-E524-468C-82CB-94433DA626DC}">
   <dimension ref="A1:BU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13760,8 +13967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037BD43-ED86-4EF2-9A18-DCA8ABE388B1}">
   <dimension ref="A1:BU9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33586,7 +33793,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+      <selection activeCell="AE1" sqref="AE1:AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34274,8 +34481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349F8E1-7BEB-4026-AC51-71D5D7249101}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34936,11 +35143,374 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmln